--- a/Arquivos/acesso_estado.xlsx
+++ b/Arquivos/acesso_estado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b5dde4ea31a779cd/Documentos/Mestrado/Arquivos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="8_{2D9F1A60-D61F-4A62-89DD-F521F17F5B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43D6FAD0-E7B6-4F44-A983-C328AB89AEC5}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="8_{2D9F1A60-D61F-4A62-89DD-F521F17F5B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7DF9F689-88CE-45FA-A598-FD37ED5C7E9C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2398" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2544" uniqueCount="175">
   <si>
     <t>Regiao</t>
   </si>
@@ -549,6 +549,15 @@
   </si>
   <si>
     <t>Istanbul</t>
+  </si>
+  <si>
+    <t>Araucania</t>
+  </si>
+  <si>
+    <t>Cherkasy Oblast</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
   </si>
 </sst>
 </file>
@@ -1092,6 +1101,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
@@ -1389,10 +1402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J2394"/>
+  <dimension ref="A1:J2540"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2370" workbookViewId="0">
-      <selection activeCell="A2394" sqref="A2394"/>
+    <sheetView tabSelected="1" topLeftCell="A2390" workbookViewId="0">
+      <selection activeCell="G2396" sqref="G2396"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -87537,6 +87550,5262 @@
         <v>25/11/2023</v>
       </c>
     </row>
+    <row r="2395" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2395" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2395">
+        <v>20231129</v>
+      </c>
+      <c r="C2395">
+        <v>49</v>
+      </c>
+      <c r="D2395">
+        <v>34</v>
+      </c>
+      <c r="E2395">
+        <v>81</v>
+      </c>
+      <c r="F2395">
+        <v>78</v>
+      </c>
+      <c r="G2395" t="str">
+        <f t="shared" ref="G2395" si="195">RIGHT(B2395,2)</f>
+        <v>29</v>
+      </c>
+      <c r="H2395" t="str">
+        <f t="shared" ref="H2395" si="196">MID(B2395,5,2)</f>
+        <v>11</v>
+      </c>
+      <c r="I2395" t="str">
+        <f t="shared" ref="I2395" si="197">LEFT(B2395,4)</f>
+        <v>2023</v>
+      </c>
+      <c r="J2395" t="str">
+        <f t="shared" ref="J2395" si="198">_xlfn.CONCAT(G2395,"/",H2395,"/",I2395)</f>
+        <v>29/11/2023</v>
+      </c>
+    </row>
+    <row r="2396" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2396" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2396">
+        <v>20231130</v>
+      </c>
+      <c r="C2396">
+        <v>43</v>
+      </c>
+      <c r="D2396">
+        <v>28</v>
+      </c>
+      <c r="E2396">
+        <v>73</v>
+      </c>
+      <c r="F2396">
+        <v>66</v>
+      </c>
+      <c r="G2396" t="str">
+        <f t="shared" ref="G2396:G2459" si="199">RIGHT(B2396,2)</f>
+        <v>30</v>
+      </c>
+      <c r="H2396" t="str">
+        <f t="shared" ref="H2396:H2459" si="200">MID(B2396,5,2)</f>
+        <v>11</v>
+      </c>
+      <c r="I2396" t="str">
+        <f t="shared" ref="I2396:I2459" si="201">LEFT(B2396,4)</f>
+        <v>2023</v>
+      </c>
+      <c r="J2396" t="str">
+        <f t="shared" ref="J2396:J2459" si="202">_xlfn.CONCAT(G2396,"/",H2396,"/",I2396)</f>
+        <v>30/11/2023</v>
+      </c>
+    </row>
+    <row r="2397" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2397" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2397">
+        <v>20231127</v>
+      </c>
+      <c r="C2397">
+        <v>41</v>
+      </c>
+      <c r="D2397">
+        <v>28</v>
+      </c>
+      <c r="E2397">
+        <v>68</v>
+      </c>
+      <c r="F2397">
+        <v>65</v>
+      </c>
+      <c r="G2397" t="str">
+        <f t="shared" si="199"/>
+        <v>27</v>
+      </c>
+      <c r="H2397" t="str">
+        <f t="shared" si="200"/>
+        <v>11</v>
+      </c>
+      <c r="I2397" t="str">
+        <f t="shared" si="201"/>
+        <v>2023</v>
+      </c>
+      <c r="J2397" t="str">
+        <f t="shared" si="202"/>
+        <v>27/11/2023</v>
+      </c>
+    </row>
+    <row r="2398" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2398" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2398">
+        <v>20231203</v>
+      </c>
+      <c r="C2398">
+        <v>33</v>
+      </c>
+      <c r="D2398">
+        <v>17</v>
+      </c>
+      <c r="E2398">
+        <v>54</v>
+      </c>
+      <c r="F2398">
+        <v>50</v>
+      </c>
+      <c r="G2398" t="str">
+        <f t="shared" si="199"/>
+        <v>03</v>
+      </c>
+      <c r="H2398" t="str">
+        <f t="shared" si="200"/>
+        <v>12</v>
+      </c>
+      <c r="I2398" t="str">
+        <f t="shared" si="201"/>
+        <v>2023</v>
+      </c>
+      <c r="J2398" t="str">
+        <f t="shared" si="202"/>
+        <v>03/12/2023</v>
+      </c>
+    </row>
+    <row r="2399" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2399" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2399">
+        <v>20231201</v>
+      </c>
+      <c r="C2399">
+        <v>32</v>
+      </c>
+      <c r="D2399">
+        <v>32</v>
+      </c>
+      <c r="E2399">
+        <v>63</v>
+      </c>
+      <c r="F2399">
+        <v>62</v>
+      </c>
+      <c r="G2399" t="str">
+        <f t="shared" si="199"/>
+        <v>01</v>
+      </c>
+      <c r="H2399" t="str">
+        <f t="shared" si="200"/>
+        <v>12</v>
+      </c>
+      <c r="I2399" t="str">
+        <f t="shared" si="201"/>
+        <v>2023</v>
+      </c>
+      <c r="J2399" t="str">
+        <f t="shared" si="202"/>
+        <v>01/12/2023</v>
+      </c>
+    </row>
+    <row r="2400" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2400" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2400">
+        <v>20231128</v>
+      </c>
+      <c r="C2400">
+        <v>26</v>
+      </c>
+      <c r="D2400">
+        <v>24</v>
+      </c>
+      <c r="E2400">
+        <v>49</v>
+      </c>
+      <c r="F2400">
+        <v>48</v>
+      </c>
+      <c r="G2400" t="str">
+        <f t="shared" si="199"/>
+        <v>28</v>
+      </c>
+      <c r="H2400" t="str">
+        <f t="shared" si="200"/>
+        <v>11</v>
+      </c>
+      <c r="I2400" t="str">
+        <f t="shared" si="201"/>
+        <v>2023</v>
+      </c>
+      <c r="J2400" t="str">
+        <f t="shared" si="202"/>
+        <v>28/11/2023</v>
+      </c>
+    </row>
+    <row r="2401" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2401" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2401">
+        <v>20231202</v>
+      </c>
+      <c r="C2401">
+        <v>24</v>
+      </c>
+      <c r="D2401">
+        <v>22</v>
+      </c>
+      <c r="E2401">
+        <v>46</v>
+      </c>
+      <c r="F2401">
+        <v>42</v>
+      </c>
+      <c r="G2401" t="str">
+        <f t="shared" si="199"/>
+        <v>02</v>
+      </c>
+      <c r="H2401" t="str">
+        <f t="shared" si="200"/>
+        <v>12</v>
+      </c>
+      <c r="I2401" t="str">
+        <f t="shared" si="201"/>
+        <v>2023</v>
+      </c>
+      <c r="J2401" t="str">
+        <f t="shared" si="202"/>
+        <v>02/12/2023</v>
+      </c>
+    </row>
+    <row r="2402" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2402" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2402">
+        <v>20231128</v>
+      </c>
+      <c r="C2402">
+        <v>6</v>
+      </c>
+      <c r="D2402">
+        <v>6</v>
+      </c>
+      <c r="E2402">
+        <v>12</v>
+      </c>
+      <c r="F2402">
+        <v>12</v>
+      </c>
+      <c r="G2402" t="str">
+        <f t="shared" si="199"/>
+        <v>28</v>
+      </c>
+      <c r="H2402" t="str">
+        <f t="shared" si="200"/>
+        <v>11</v>
+      </c>
+      <c r="I2402" t="str">
+        <f t="shared" si="201"/>
+        <v>2023</v>
+      </c>
+      <c r="J2402" t="str">
+        <f t="shared" si="202"/>
+        <v>28/11/2023</v>
+      </c>
+    </row>
+    <row r="2403" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2403" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2403">
+        <v>20231127</v>
+      </c>
+      <c r="C2403">
+        <v>5</v>
+      </c>
+      <c r="D2403">
+        <v>1</v>
+      </c>
+      <c r="E2403">
+        <v>6</v>
+      </c>
+      <c r="F2403">
+        <v>6</v>
+      </c>
+      <c r="G2403" t="str">
+        <f t="shared" si="199"/>
+        <v>27</v>
+      </c>
+      <c r="H2403" t="str">
+        <f t="shared" si="200"/>
+        <v>11</v>
+      </c>
+      <c r="I2403" t="str">
+        <f t="shared" si="201"/>
+        <v>2023</v>
+      </c>
+      <c r="J2403" t="str">
+        <f t="shared" si="202"/>
+        <v>27/11/2023</v>
+      </c>
+    </row>
+    <row r="2404" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2404" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2404">
+        <v>20231127</v>
+      </c>
+      <c r="C2404">
+        <v>5</v>
+      </c>
+      <c r="D2404">
+        <v>4</v>
+      </c>
+      <c r="E2404">
+        <v>9</v>
+      </c>
+      <c r="F2404">
+        <v>9</v>
+      </c>
+      <c r="G2404" t="str">
+        <f t="shared" si="199"/>
+        <v>27</v>
+      </c>
+      <c r="H2404" t="str">
+        <f t="shared" si="200"/>
+        <v>11</v>
+      </c>
+      <c r="I2404" t="str">
+        <f t="shared" si="201"/>
+        <v>2023</v>
+      </c>
+      <c r="J2404" t="str">
+        <f t="shared" si="202"/>
+        <v>27/11/2023</v>
+      </c>
+    </row>
+    <row r="2405" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2405" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2405">
+        <v>20231203</v>
+      </c>
+      <c r="C2405">
+        <v>5</v>
+      </c>
+      <c r="D2405">
+        <v>4</v>
+      </c>
+      <c r="E2405">
+        <v>9</v>
+      </c>
+      <c r="F2405">
+        <v>9</v>
+      </c>
+      <c r="G2405" t="str">
+        <f t="shared" si="199"/>
+        <v>03</v>
+      </c>
+      <c r="H2405" t="str">
+        <f t="shared" si="200"/>
+        <v>12</v>
+      </c>
+      <c r="I2405" t="str">
+        <f t="shared" si="201"/>
+        <v>2023</v>
+      </c>
+      <c r="J2405" t="str">
+        <f t="shared" si="202"/>
+        <v>03/12/2023</v>
+      </c>
+    </row>
+    <row r="2406" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2406" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2406">
+        <v>20231129</v>
+      </c>
+      <c r="C2406">
+        <v>4</v>
+      </c>
+      <c r="D2406">
+        <v>6</v>
+      </c>
+      <c r="E2406">
+        <v>11</v>
+      </c>
+      <c r="F2406">
+        <v>11</v>
+      </c>
+      <c r="G2406" t="str">
+        <f t="shared" si="199"/>
+        <v>29</v>
+      </c>
+      <c r="H2406" t="str">
+        <f t="shared" si="200"/>
+        <v>11</v>
+      </c>
+      <c r="I2406" t="str">
+        <f t="shared" si="201"/>
+        <v>2023</v>
+      </c>
+      <c r="J2406" t="str">
+        <f t="shared" si="202"/>
+        <v>29/11/2023</v>
+      </c>
+    </row>
+    <row r="2407" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2407" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2407">
+        <v>20231201</v>
+      </c>
+      <c r="C2407">
+        <v>4</v>
+      </c>
+      <c r="D2407">
+        <v>7</v>
+      </c>
+      <c r="E2407">
+        <v>10</v>
+      </c>
+      <c r="F2407">
+        <v>10</v>
+      </c>
+      <c r="G2407" t="str">
+        <f t="shared" si="199"/>
+        <v>01</v>
+      </c>
+      <c r="H2407" t="str">
+        <f t="shared" si="200"/>
+        <v>12</v>
+      </c>
+      <c r="I2407" t="str">
+        <f t="shared" si="201"/>
+        <v>2023</v>
+      </c>
+      <c r="J2407" t="str">
+        <f t="shared" si="202"/>
+        <v>01/12/2023</v>
+      </c>
+    </row>
+    <row r="2408" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2408" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2408">
+        <v>20231129</v>
+      </c>
+      <c r="C2408">
+        <v>3</v>
+      </c>
+      <c r="D2408">
+        <v>1</v>
+      </c>
+      <c r="E2408">
+        <v>3</v>
+      </c>
+      <c r="F2408">
+        <v>3</v>
+      </c>
+      <c r="G2408" t="str">
+        <f t="shared" si="199"/>
+        <v>29</v>
+      </c>
+      <c r="H2408" t="str">
+        <f t="shared" si="200"/>
+        <v>11</v>
+      </c>
+      <c r="I2408" t="str">
+        <f t="shared" si="201"/>
+        <v>2023</v>
+      </c>
+      <c r="J2408" t="str">
+        <f t="shared" si="202"/>
+        <v>29/11/2023</v>
+      </c>
+    </row>
+    <row r="2409" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2409" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2409">
+        <v>20231201</v>
+      </c>
+      <c r="C2409">
+        <v>3</v>
+      </c>
+      <c r="D2409">
+        <v>5</v>
+      </c>
+      <c r="E2409">
+        <v>8</v>
+      </c>
+      <c r="F2409">
+        <v>8</v>
+      </c>
+      <c r="G2409" t="str">
+        <f t="shared" si="199"/>
+        <v>01</v>
+      </c>
+      <c r="H2409" t="str">
+        <f t="shared" si="200"/>
+        <v>12</v>
+      </c>
+      <c r="I2409" t="str">
+        <f t="shared" si="201"/>
+        <v>2023</v>
+      </c>
+      <c r="J2409" t="str">
+        <f t="shared" si="202"/>
+        <v>01/12/2023</v>
+      </c>
+    </row>
+    <row r="2410" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2410" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2410">
+        <v>20231128</v>
+      </c>
+      <c r="C2410">
+        <v>3</v>
+      </c>
+      <c r="D2410">
+        <v>4</v>
+      </c>
+      <c r="E2410">
+        <v>7</v>
+      </c>
+      <c r="F2410">
+        <v>7</v>
+      </c>
+      <c r="G2410" t="str">
+        <f t="shared" si="199"/>
+        <v>28</v>
+      </c>
+      <c r="H2410" t="str">
+        <f t="shared" si="200"/>
+        <v>11</v>
+      </c>
+      <c r="I2410" t="str">
+        <f t="shared" si="201"/>
+        <v>2023</v>
+      </c>
+      <c r="J2410" t="str">
+        <f t="shared" si="202"/>
+        <v>28/11/2023</v>
+      </c>
+    </row>
+    <row r="2411" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2411" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2411">
+        <v>20231129</v>
+      </c>
+      <c r="C2411">
+        <v>3</v>
+      </c>
+      <c r="D2411">
+        <v>9</v>
+      </c>
+      <c r="E2411">
+        <v>12</v>
+      </c>
+      <c r="F2411">
+        <v>12</v>
+      </c>
+      <c r="G2411" t="str">
+        <f t="shared" si="199"/>
+        <v>29</v>
+      </c>
+      <c r="H2411" t="str">
+        <f t="shared" si="200"/>
+        <v>11</v>
+      </c>
+      <c r="I2411" t="str">
+        <f t="shared" si="201"/>
+        <v>2023</v>
+      </c>
+      <c r="J2411" t="str">
+        <f t="shared" si="202"/>
+        <v>29/11/2023</v>
+      </c>
+    </row>
+    <row r="2412" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2412" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2412">
+        <v>20231130</v>
+      </c>
+      <c r="C2412">
+        <v>3</v>
+      </c>
+      <c r="D2412">
+        <v>7</v>
+      </c>
+      <c r="E2412">
+        <v>11</v>
+      </c>
+      <c r="F2412">
+        <v>10</v>
+      </c>
+      <c r="G2412" t="str">
+        <f t="shared" si="199"/>
+        <v>30</v>
+      </c>
+      <c r="H2412" t="str">
+        <f t="shared" si="200"/>
+        <v>11</v>
+      </c>
+      <c r="I2412" t="str">
+        <f t="shared" si="201"/>
+        <v>2023</v>
+      </c>
+      <c r="J2412" t="str">
+        <f t="shared" si="202"/>
+        <v>30/11/2023</v>
+      </c>
+    </row>
+    <row r="2413" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2413" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2413">
+        <v>20231201</v>
+      </c>
+      <c r="C2413">
+        <v>3</v>
+      </c>
+      <c r="D2413">
+        <v>1</v>
+      </c>
+      <c r="E2413">
+        <v>5</v>
+      </c>
+      <c r="F2413">
+        <v>5</v>
+      </c>
+      <c r="G2413" t="str">
+        <f t="shared" si="199"/>
+        <v>01</v>
+      </c>
+      <c r="H2413" t="str">
+        <f t="shared" si="200"/>
+        <v>12</v>
+      </c>
+      <c r="I2413" t="str">
+        <f t="shared" si="201"/>
+        <v>2023</v>
+      </c>
+      <c r="J2413" t="str">
+        <f t="shared" si="202"/>
+        <v>01/12/2023</v>
+      </c>
+    </row>
+    <row r="2414" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2414" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2414">
+        <v>20231127</v>
+      </c>
+      <c r="C2414">
+        <v>3</v>
+      </c>
+      <c r="D2414">
+        <v>9</v>
+      </c>
+      <c r="E2414">
+        <v>12</v>
+      </c>
+      <c r="F2414">
+        <v>11</v>
+      </c>
+      <c r="G2414" t="str">
+        <f t="shared" si="199"/>
+        <v>27</v>
+      </c>
+      <c r="H2414" t="str">
+        <f t="shared" si="200"/>
+        <v>11</v>
+      </c>
+      <c r="I2414" t="str">
+        <f t="shared" si="201"/>
+        <v>2023</v>
+      </c>
+      <c r="J2414" t="str">
+        <f t="shared" si="202"/>
+        <v>27/11/2023</v>
+      </c>
+    </row>
+    <row r="2415" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2415" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2415">
+        <v>20231203</v>
+      </c>
+      <c r="C2415">
+        <v>3</v>
+      </c>
+      <c r="D2415">
+        <v>16</v>
+      </c>
+      <c r="E2415">
+        <v>19</v>
+      </c>
+      <c r="F2415">
+        <v>19</v>
+      </c>
+      <c r="G2415" t="str">
+        <f t="shared" si="199"/>
+        <v>03</v>
+      </c>
+      <c r="H2415" t="str">
+        <f t="shared" si="200"/>
+        <v>12</v>
+      </c>
+      <c r="I2415" t="str">
+        <f t="shared" si="201"/>
+        <v>2023</v>
+      </c>
+      <c r="J2415" t="str">
+        <f t="shared" si="202"/>
+        <v>03/12/2023</v>
+      </c>
+    </row>
+    <row r="2416" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2416" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2416">
+        <v>20231128</v>
+      </c>
+      <c r="C2416">
+        <v>2</v>
+      </c>
+      <c r="D2416">
+        <v>1</v>
+      </c>
+      <c r="E2416">
+        <v>3</v>
+      </c>
+      <c r="F2416">
+        <v>3</v>
+      </c>
+      <c r="G2416" t="str">
+        <f t="shared" si="199"/>
+        <v>28</v>
+      </c>
+      <c r="H2416" t="str">
+        <f t="shared" si="200"/>
+        <v>11</v>
+      </c>
+      <c r="I2416" t="str">
+        <f t="shared" si="201"/>
+        <v>2023</v>
+      </c>
+      <c r="J2416" t="str">
+        <f t="shared" si="202"/>
+        <v>28/11/2023</v>
+      </c>
+    </row>
+    <row r="2417" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2417" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2417">
+        <v>20231130</v>
+      </c>
+      <c r="C2417">
+        <v>2</v>
+      </c>
+      <c r="D2417">
+        <v>3</v>
+      </c>
+      <c r="E2417">
+        <v>5</v>
+      </c>
+      <c r="F2417">
+        <v>5</v>
+      </c>
+      <c r="G2417" t="str">
+        <f t="shared" si="199"/>
+        <v>30</v>
+      </c>
+      <c r="H2417" t="str">
+        <f t="shared" si="200"/>
+        <v>11</v>
+      </c>
+      <c r="I2417" t="str">
+        <f t="shared" si="201"/>
+        <v>2023</v>
+      </c>
+      <c r="J2417" t="str">
+        <f t="shared" si="202"/>
+        <v>30/11/2023</v>
+      </c>
+    </row>
+    <row r="2418" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2418" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2418">
+        <v>20231130</v>
+      </c>
+      <c r="C2418">
+        <v>2</v>
+      </c>
+      <c r="D2418">
+        <v>4</v>
+      </c>
+      <c r="E2418">
+        <v>6</v>
+      </c>
+      <c r="F2418">
+        <v>6</v>
+      </c>
+      <c r="G2418" t="str">
+        <f t="shared" si="199"/>
+        <v>30</v>
+      </c>
+      <c r="H2418" t="str">
+        <f t="shared" si="200"/>
+        <v>11</v>
+      </c>
+      <c r="I2418" t="str">
+        <f t="shared" si="201"/>
+        <v>2023</v>
+      </c>
+      <c r="J2418" t="str">
+        <f t="shared" si="202"/>
+        <v>30/11/2023</v>
+      </c>
+    </row>
+    <row r="2419" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2419" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2419">
+        <v>20231127</v>
+      </c>
+      <c r="C2419">
+        <v>2</v>
+      </c>
+      <c r="D2419">
+        <v>1</v>
+      </c>
+      <c r="E2419">
+        <v>2</v>
+      </c>
+      <c r="F2419">
+        <v>2</v>
+      </c>
+      <c r="G2419" t="str">
+        <f t="shared" si="199"/>
+        <v>27</v>
+      </c>
+      <c r="H2419" t="str">
+        <f t="shared" si="200"/>
+        <v>11</v>
+      </c>
+      <c r="I2419" t="str">
+        <f t="shared" si="201"/>
+        <v>2023</v>
+      </c>
+      <c r="J2419" t="str">
+        <f t="shared" si="202"/>
+        <v>27/11/2023</v>
+      </c>
+    </row>
+    <row r="2420" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2420" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2420">
+        <v>20231128</v>
+      </c>
+      <c r="C2420">
+        <v>2</v>
+      </c>
+      <c r="D2420">
+        <v>0</v>
+      </c>
+      <c r="E2420">
+        <v>2</v>
+      </c>
+      <c r="F2420">
+        <v>2</v>
+      </c>
+      <c r="G2420" t="str">
+        <f t="shared" si="199"/>
+        <v>28</v>
+      </c>
+      <c r="H2420" t="str">
+        <f t="shared" si="200"/>
+        <v>11</v>
+      </c>
+      <c r="I2420" t="str">
+        <f t="shared" si="201"/>
+        <v>2023</v>
+      </c>
+      <c r="J2420" t="str">
+        <f t="shared" si="202"/>
+        <v>28/11/2023</v>
+      </c>
+    </row>
+    <row r="2421" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2421" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2421">
+        <v>20231127</v>
+      </c>
+      <c r="C2421">
+        <v>2</v>
+      </c>
+      <c r="D2421">
+        <v>3</v>
+      </c>
+      <c r="E2421">
+        <v>5</v>
+      </c>
+      <c r="F2421">
+        <v>5</v>
+      </c>
+      <c r="G2421" t="str">
+        <f t="shared" si="199"/>
+        <v>27</v>
+      </c>
+      <c r="H2421" t="str">
+        <f t="shared" si="200"/>
+        <v>11</v>
+      </c>
+      <c r="I2421" t="str">
+        <f t="shared" si="201"/>
+        <v>2023</v>
+      </c>
+      <c r="J2421" t="str">
+        <f t="shared" si="202"/>
+        <v>27/11/2023</v>
+      </c>
+    </row>
+    <row r="2422" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2422" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2422">
+        <v>20231128</v>
+      </c>
+      <c r="C2422">
+        <v>2</v>
+      </c>
+      <c r="D2422">
+        <v>2</v>
+      </c>
+      <c r="E2422">
+        <v>4</v>
+      </c>
+      <c r="F2422">
+        <v>4</v>
+      </c>
+      <c r="G2422" t="str">
+        <f t="shared" si="199"/>
+        <v>28</v>
+      </c>
+      <c r="H2422" t="str">
+        <f t="shared" si="200"/>
+        <v>11</v>
+      </c>
+      <c r="I2422" t="str">
+        <f t="shared" si="201"/>
+        <v>2023</v>
+      </c>
+      <c r="J2422" t="str">
+        <f t="shared" si="202"/>
+        <v>28/11/2023</v>
+      </c>
+    </row>
+    <row r="2423" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2423" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2423">
+        <v>20231130</v>
+      </c>
+      <c r="C2423">
+        <v>2</v>
+      </c>
+      <c r="D2423">
+        <v>1</v>
+      </c>
+      <c r="E2423">
+        <v>4</v>
+      </c>
+      <c r="F2423">
+        <v>3</v>
+      </c>
+      <c r="G2423" t="str">
+        <f t="shared" si="199"/>
+        <v>30</v>
+      </c>
+      <c r="H2423" t="str">
+        <f t="shared" si="200"/>
+        <v>11</v>
+      </c>
+      <c r="I2423" t="str">
+        <f t="shared" si="201"/>
+        <v>2023</v>
+      </c>
+      <c r="J2423" t="str">
+        <f t="shared" si="202"/>
+        <v>30/11/2023</v>
+      </c>
+    </row>
+    <row r="2424" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2424" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2424">
+        <v>20231202</v>
+      </c>
+      <c r="C2424">
+        <v>2</v>
+      </c>
+      <c r="D2424">
+        <v>1</v>
+      </c>
+      <c r="E2424">
+        <v>3</v>
+      </c>
+      <c r="F2424">
+        <v>3</v>
+      </c>
+      <c r="G2424" t="str">
+        <f t="shared" si="199"/>
+        <v>02</v>
+      </c>
+      <c r="H2424" t="str">
+        <f t="shared" si="200"/>
+        <v>12</v>
+      </c>
+      <c r="I2424" t="str">
+        <f t="shared" si="201"/>
+        <v>2023</v>
+      </c>
+      <c r="J2424" t="str">
+        <f t="shared" si="202"/>
+        <v>02/12/2023</v>
+      </c>
+    </row>
+    <row r="2425" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2425" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2425">
+        <v>20231129</v>
+      </c>
+      <c r="C2425">
+        <v>2</v>
+      </c>
+      <c r="D2425">
+        <v>2</v>
+      </c>
+      <c r="E2425">
+        <v>4</v>
+      </c>
+      <c r="F2425">
+        <v>4</v>
+      </c>
+      <c r="G2425" t="str">
+        <f t="shared" si="199"/>
+        <v>29</v>
+      </c>
+      <c r="H2425" t="str">
+        <f t="shared" si="200"/>
+        <v>11</v>
+      </c>
+      <c r="I2425" t="str">
+        <f t="shared" si="201"/>
+        <v>2023</v>
+      </c>
+      <c r="J2425" t="str">
+        <f t="shared" si="202"/>
+        <v>29/11/2023</v>
+      </c>
+    </row>
+    <row r="2426" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2426" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2426">
+        <v>20231130</v>
+      </c>
+      <c r="C2426">
+        <v>2</v>
+      </c>
+      <c r="D2426">
+        <v>1</v>
+      </c>
+      <c r="E2426">
+        <v>3</v>
+      </c>
+      <c r="F2426">
+        <v>3</v>
+      </c>
+      <c r="G2426" t="str">
+        <f t="shared" si="199"/>
+        <v>30</v>
+      </c>
+      <c r="H2426" t="str">
+        <f t="shared" si="200"/>
+        <v>11</v>
+      </c>
+      <c r="I2426" t="str">
+        <f t="shared" si="201"/>
+        <v>2023</v>
+      </c>
+      <c r="J2426" t="str">
+        <f t="shared" si="202"/>
+        <v>30/11/2023</v>
+      </c>
+    </row>
+    <row r="2427" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2427" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2427">
+        <v>20231203</v>
+      </c>
+      <c r="C2427">
+        <v>2</v>
+      </c>
+      <c r="D2427">
+        <v>0</v>
+      </c>
+      <c r="E2427">
+        <v>2</v>
+      </c>
+      <c r="F2427">
+        <v>2</v>
+      </c>
+      <c r="G2427" t="str">
+        <f t="shared" si="199"/>
+        <v>03</v>
+      </c>
+      <c r="H2427" t="str">
+        <f t="shared" si="200"/>
+        <v>12</v>
+      </c>
+      <c r="I2427" t="str">
+        <f t="shared" si="201"/>
+        <v>2023</v>
+      </c>
+      <c r="J2427" t="str">
+        <f t="shared" si="202"/>
+        <v>03/12/2023</v>
+      </c>
+    </row>
+    <row r="2428" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2428" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2428">
+        <v>20231202</v>
+      </c>
+      <c r="C2428">
+        <v>2</v>
+      </c>
+      <c r="D2428">
+        <v>2</v>
+      </c>
+      <c r="E2428">
+        <v>4</v>
+      </c>
+      <c r="F2428">
+        <v>4</v>
+      </c>
+      <c r="G2428" t="str">
+        <f t="shared" si="199"/>
+        <v>02</v>
+      </c>
+      <c r="H2428" t="str">
+        <f t="shared" si="200"/>
+        <v>12</v>
+      </c>
+      <c r="I2428" t="str">
+        <f t="shared" si="201"/>
+        <v>2023</v>
+      </c>
+      <c r="J2428" t="str">
+        <f t="shared" si="202"/>
+        <v>02/12/2023</v>
+      </c>
+    </row>
+    <row r="2429" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2429" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2429">
+        <v>20231202</v>
+      </c>
+      <c r="C2429">
+        <v>2</v>
+      </c>
+      <c r="D2429">
+        <v>2</v>
+      </c>
+      <c r="E2429">
+        <v>4</v>
+      </c>
+      <c r="F2429">
+        <v>4</v>
+      </c>
+      <c r="G2429" t="str">
+        <f t="shared" si="199"/>
+        <v>02</v>
+      </c>
+      <c r="H2429" t="str">
+        <f t="shared" si="200"/>
+        <v>12</v>
+      </c>
+      <c r="I2429" t="str">
+        <f t="shared" si="201"/>
+        <v>2023</v>
+      </c>
+      <c r="J2429" t="str">
+        <f t="shared" si="202"/>
+        <v>02/12/2023</v>
+      </c>
+    </row>
+    <row r="2430" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2430" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2430">
+        <v>20231128</v>
+      </c>
+      <c r="C2430">
+        <v>2</v>
+      </c>
+      <c r="D2430">
+        <v>2</v>
+      </c>
+      <c r="E2430">
+        <v>4</v>
+      </c>
+      <c r="F2430">
+        <v>4</v>
+      </c>
+      <c r="G2430" t="str">
+        <f t="shared" si="199"/>
+        <v>28</v>
+      </c>
+      <c r="H2430" t="str">
+        <f t="shared" si="200"/>
+        <v>11</v>
+      </c>
+      <c r="I2430" t="str">
+        <f t="shared" si="201"/>
+        <v>2023</v>
+      </c>
+      <c r="J2430" t="str">
+        <f t="shared" si="202"/>
+        <v>28/11/2023</v>
+      </c>
+    </row>
+    <row r="2431" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2431" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2431">
+        <v>20231129</v>
+      </c>
+      <c r="C2431">
+        <v>2</v>
+      </c>
+      <c r="D2431">
+        <v>2</v>
+      </c>
+      <c r="E2431">
+        <v>4</v>
+      </c>
+      <c r="F2431">
+        <v>4</v>
+      </c>
+      <c r="G2431" t="str">
+        <f t="shared" si="199"/>
+        <v>29</v>
+      </c>
+      <c r="H2431" t="str">
+        <f t="shared" si="200"/>
+        <v>11</v>
+      </c>
+      <c r="I2431" t="str">
+        <f t="shared" si="201"/>
+        <v>2023</v>
+      </c>
+      <c r="J2431" t="str">
+        <f t="shared" si="202"/>
+        <v>29/11/2023</v>
+      </c>
+    </row>
+    <row r="2432" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2432" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2432">
+        <v>20231128</v>
+      </c>
+      <c r="C2432">
+        <v>2</v>
+      </c>
+      <c r="D2432">
+        <v>1</v>
+      </c>
+      <c r="E2432">
+        <v>2</v>
+      </c>
+      <c r="F2432">
+        <v>2</v>
+      </c>
+      <c r="G2432" t="str">
+        <f t="shared" si="199"/>
+        <v>28</v>
+      </c>
+      <c r="H2432" t="str">
+        <f t="shared" si="200"/>
+        <v>11</v>
+      </c>
+      <c r="I2432" t="str">
+        <f t="shared" si="201"/>
+        <v>2023</v>
+      </c>
+      <c r="J2432" t="str">
+        <f t="shared" si="202"/>
+        <v>28/11/2023</v>
+      </c>
+    </row>
+    <row r="2433" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2433" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2433">
+        <v>20231129</v>
+      </c>
+      <c r="C2433">
+        <v>2</v>
+      </c>
+      <c r="D2433">
+        <v>3</v>
+      </c>
+      <c r="E2433">
+        <v>5</v>
+      </c>
+      <c r="F2433">
+        <v>5</v>
+      </c>
+      <c r="G2433" t="str">
+        <f t="shared" si="199"/>
+        <v>29</v>
+      </c>
+      <c r="H2433" t="str">
+        <f t="shared" si="200"/>
+        <v>11</v>
+      </c>
+      <c r="I2433" t="str">
+        <f t="shared" si="201"/>
+        <v>2023</v>
+      </c>
+      <c r="J2433" t="str">
+        <f t="shared" si="202"/>
+        <v>29/11/2023</v>
+      </c>
+    </row>
+    <row r="2434" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2434" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2434">
+        <v>20231127</v>
+      </c>
+      <c r="C2434">
+        <v>2</v>
+      </c>
+      <c r="D2434">
+        <v>1</v>
+      </c>
+      <c r="E2434">
+        <v>3</v>
+      </c>
+      <c r="F2434">
+        <v>3</v>
+      </c>
+      <c r="G2434" t="str">
+        <f t="shared" si="199"/>
+        <v>27</v>
+      </c>
+      <c r="H2434" t="str">
+        <f t="shared" si="200"/>
+        <v>11</v>
+      </c>
+      <c r="I2434" t="str">
+        <f t="shared" si="201"/>
+        <v>2023</v>
+      </c>
+      <c r="J2434" t="str">
+        <f t="shared" si="202"/>
+        <v>27/11/2023</v>
+      </c>
+    </row>
+    <row r="2435" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2435" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2435">
+        <v>20231128</v>
+      </c>
+      <c r="C2435">
+        <v>2</v>
+      </c>
+      <c r="D2435">
+        <v>2</v>
+      </c>
+      <c r="E2435">
+        <v>3</v>
+      </c>
+      <c r="F2435">
+        <v>3</v>
+      </c>
+      <c r="G2435" t="str">
+        <f t="shared" si="199"/>
+        <v>28</v>
+      </c>
+      <c r="H2435" t="str">
+        <f t="shared" si="200"/>
+        <v>11</v>
+      </c>
+      <c r="I2435" t="str">
+        <f t="shared" si="201"/>
+        <v>2023</v>
+      </c>
+      <c r="J2435" t="str">
+        <f t="shared" si="202"/>
+        <v>28/11/2023</v>
+      </c>
+    </row>
+    <row r="2436" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2436" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2436">
+        <v>20231203</v>
+      </c>
+      <c r="C2436">
+        <v>2</v>
+      </c>
+      <c r="D2436">
+        <v>5</v>
+      </c>
+      <c r="E2436">
+        <v>7</v>
+      </c>
+      <c r="F2436">
+        <v>7</v>
+      </c>
+      <c r="G2436" t="str">
+        <f t="shared" si="199"/>
+        <v>03</v>
+      </c>
+      <c r="H2436" t="str">
+        <f t="shared" si="200"/>
+        <v>12</v>
+      </c>
+      <c r="I2436" t="str">
+        <f t="shared" si="201"/>
+        <v>2023</v>
+      </c>
+      <c r="J2436" t="str">
+        <f t="shared" si="202"/>
+        <v>03/12/2023</v>
+      </c>
+    </row>
+    <row r="2437" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2437" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2437">
+        <v>20231129</v>
+      </c>
+      <c r="C2437">
+        <v>2</v>
+      </c>
+      <c r="D2437">
+        <v>13</v>
+      </c>
+      <c r="E2437">
+        <v>15</v>
+      </c>
+      <c r="F2437">
+        <v>15</v>
+      </c>
+      <c r="G2437" t="str">
+        <f t="shared" si="199"/>
+        <v>29</v>
+      </c>
+      <c r="H2437" t="str">
+        <f t="shared" si="200"/>
+        <v>11</v>
+      </c>
+      <c r="I2437" t="str">
+        <f t="shared" si="201"/>
+        <v>2023</v>
+      </c>
+      <c r="J2437" t="str">
+        <f t="shared" si="202"/>
+        <v>29/11/2023</v>
+      </c>
+    </row>
+    <row r="2438" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2438" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2438">
+        <v>20231130</v>
+      </c>
+      <c r="C2438">
+        <v>2</v>
+      </c>
+      <c r="D2438">
+        <v>5</v>
+      </c>
+      <c r="E2438">
+        <v>7</v>
+      </c>
+      <c r="F2438">
+        <v>7</v>
+      </c>
+      <c r="G2438" t="str">
+        <f t="shared" si="199"/>
+        <v>30</v>
+      </c>
+      <c r="H2438" t="str">
+        <f t="shared" si="200"/>
+        <v>11</v>
+      </c>
+      <c r="I2438" t="str">
+        <f t="shared" si="201"/>
+        <v>2023</v>
+      </c>
+      <c r="J2438" t="str">
+        <f t="shared" si="202"/>
+        <v>30/11/2023</v>
+      </c>
+    </row>
+    <row r="2439" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2439" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2439">
+        <v>20231202</v>
+      </c>
+      <c r="C2439">
+        <v>2</v>
+      </c>
+      <c r="D2439">
+        <v>2</v>
+      </c>
+      <c r="E2439">
+        <v>4</v>
+      </c>
+      <c r="F2439">
+        <v>4</v>
+      </c>
+      <c r="G2439" t="str">
+        <f t="shared" si="199"/>
+        <v>02</v>
+      </c>
+      <c r="H2439" t="str">
+        <f t="shared" si="200"/>
+        <v>12</v>
+      </c>
+      <c r="I2439" t="str">
+        <f t="shared" si="201"/>
+        <v>2023</v>
+      </c>
+      <c r="J2439" t="str">
+        <f t="shared" si="202"/>
+        <v>02/12/2023</v>
+      </c>
+    </row>
+    <row r="2440" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2440" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2440">
+        <v>20231130</v>
+      </c>
+      <c r="C2440">
+        <v>1</v>
+      </c>
+      <c r="D2440">
+        <v>0</v>
+      </c>
+      <c r="E2440">
+        <v>1</v>
+      </c>
+      <c r="F2440">
+        <v>1</v>
+      </c>
+      <c r="G2440" t="str">
+        <f t="shared" si="199"/>
+        <v>30</v>
+      </c>
+      <c r="H2440" t="str">
+        <f t="shared" si="200"/>
+        <v>11</v>
+      </c>
+      <c r="I2440" t="str">
+        <f t="shared" si="201"/>
+        <v>2023</v>
+      </c>
+      <c r="J2440" t="str">
+        <f t="shared" si="202"/>
+        <v>30/11/2023</v>
+      </c>
+    </row>
+    <row r="2441" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2441" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2441">
+        <v>20231202</v>
+      </c>
+      <c r="C2441">
+        <v>1</v>
+      </c>
+      <c r="D2441">
+        <v>0</v>
+      </c>
+      <c r="E2441">
+        <v>1</v>
+      </c>
+      <c r="F2441">
+        <v>1</v>
+      </c>
+      <c r="G2441" t="str">
+        <f t="shared" si="199"/>
+        <v>02</v>
+      </c>
+      <c r="H2441" t="str">
+        <f t="shared" si="200"/>
+        <v>12</v>
+      </c>
+      <c r="I2441" t="str">
+        <f t="shared" si="201"/>
+        <v>2023</v>
+      </c>
+      <c r="J2441" t="str">
+        <f t="shared" si="202"/>
+        <v>02/12/2023</v>
+      </c>
+    </row>
+    <row r="2442" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2442" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2442">
+        <v>20231203</v>
+      </c>
+      <c r="C2442">
+        <v>1</v>
+      </c>
+      <c r="D2442">
+        <v>1</v>
+      </c>
+      <c r="E2442">
+        <v>1</v>
+      </c>
+      <c r="F2442">
+        <v>1</v>
+      </c>
+      <c r="G2442" t="str">
+        <f t="shared" si="199"/>
+        <v>03</v>
+      </c>
+      <c r="H2442" t="str">
+        <f t="shared" si="200"/>
+        <v>12</v>
+      </c>
+      <c r="I2442" t="str">
+        <f t="shared" si="201"/>
+        <v>2023</v>
+      </c>
+      <c r="J2442" t="str">
+        <f t="shared" si="202"/>
+        <v>03/12/2023</v>
+      </c>
+    </row>
+    <row r="2443" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2443" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2443">
+        <v>20231201</v>
+      </c>
+      <c r="C2443">
+        <v>1</v>
+      </c>
+      <c r="D2443">
+        <v>2</v>
+      </c>
+      <c r="E2443">
+        <v>4</v>
+      </c>
+      <c r="F2443">
+        <v>3</v>
+      </c>
+      <c r="G2443" t="str">
+        <f t="shared" si="199"/>
+        <v>01</v>
+      </c>
+      <c r="H2443" t="str">
+        <f t="shared" si="200"/>
+        <v>12</v>
+      </c>
+      <c r="I2443" t="str">
+        <f t="shared" si="201"/>
+        <v>2023</v>
+      </c>
+      <c r="J2443" t="str">
+        <f t="shared" si="202"/>
+        <v>01/12/2023</v>
+      </c>
+    </row>
+    <row r="2444" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2444" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2444">
+        <v>20231202</v>
+      </c>
+      <c r="C2444">
+        <v>1</v>
+      </c>
+      <c r="D2444">
+        <v>1</v>
+      </c>
+      <c r="E2444">
+        <v>2</v>
+      </c>
+      <c r="F2444">
+        <v>2</v>
+      </c>
+      <c r="G2444" t="str">
+        <f t="shared" si="199"/>
+        <v>02</v>
+      </c>
+      <c r="H2444" t="str">
+        <f t="shared" si="200"/>
+        <v>12</v>
+      </c>
+      <c r="I2444" t="str">
+        <f t="shared" si="201"/>
+        <v>2023</v>
+      </c>
+      <c r="J2444" t="str">
+        <f t="shared" si="202"/>
+        <v>02/12/2023</v>
+      </c>
+    </row>
+    <row r="2445" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2445" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2445">
+        <v>20231129</v>
+      </c>
+      <c r="C2445">
+        <v>1</v>
+      </c>
+      <c r="D2445">
+        <v>0</v>
+      </c>
+      <c r="E2445">
+        <v>1</v>
+      </c>
+      <c r="F2445">
+        <v>1</v>
+      </c>
+      <c r="G2445" t="str">
+        <f t="shared" si="199"/>
+        <v>29</v>
+      </c>
+      <c r="H2445" t="str">
+        <f t="shared" si="200"/>
+        <v>11</v>
+      </c>
+      <c r="I2445" t="str">
+        <f t="shared" si="201"/>
+        <v>2023</v>
+      </c>
+      <c r="J2445" t="str">
+        <f t="shared" si="202"/>
+        <v>29/11/2023</v>
+      </c>
+    </row>
+    <row r="2446" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2446" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2446">
+        <v>20231127</v>
+      </c>
+      <c r="C2446">
+        <v>1</v>
+      </c>
+      <c r="D2446">
+        <v>0</v>
+      </c>
+      <c r="E2446">
+        <v>1</v>
+      </c>
+      <c r="F2446">
+        <v>1</v>
+      </c>
+      <c r="G2446" t="str">
+        <f t="shared" si="199"/>
+        <v>27</v>
+      </c>
+      <c r="H2446" t="str">
+        <f t="shared" si="200"/>
+        <v>11</v>
+      </c>
+      <c r="I2446" t="str">
+        <f t="shared" si="201"/>
+        <v>2023</v>
+      </c>
+      <c r="J2446" t="str">
+        <f t="shared" si="202"/>
+        <v>27/11/2023</v>
+      </c>
+    </row>
+    <row r="2447" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2447" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2447">
+        <v>20231128</v>
+      </c>
+      <c r="C2447">
+        <v>1</v>
+      </c>
+      <c r="D2447">
+        <v>0</v>
+      </c>
+      <c r="E2447">
+        <v>1</v>
+      </c>
+      <c r="F2447">
+        <v>1</v>
+      </c>
+      <c r="G2447" t="str">
+        <f t="shared" si="199"/>
+        <v>28</v>
+      </c>
+      <c r="H2447" t="str">
+        <f t="shared" si="200"/>
+        <v>11</v>
+      </c>
+      <c r="I2447" t="str">
+        <f t="shared" si="201"/>
+        <v>2023</v>
+      </c>
+      <c r="J2447" t="str">
+        <f t="shared" si="202"/>
+        <v>28/11/2023</v>
+      </c>
+    </row>
+    <row r="2448" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2448" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2448">
+        <v>20231129</v>
+      </c>
+      <c r="C2448">
+        <v>1</v>
+      </c>
+      <c r="D2448">
+        <v>0</v>
+      </c>
+      <c r="E2448">
+        <v>1</v>
+      </c>
+      <c r="F2448">
+        <v>1</v>
+      </c>
+      <c r="G2448" t="str">
+        <f t="shared" si="199"/>
+        <v>29</v>
+      </c>
+      <c r="H2448" t="str">
+        <f t="shared" si="200"/>
+        <v>11</v>
+      </c>
+      <c r="I2448" t="str">
+        <f t="shared" si="201"/>
+        <v>2023</v>
+      </c>
+      <c r="J2448" t="str">
+        <f t="shared" si="202"/>
+        <v>29/11/2023</v>
+      </c>
+    </row>
+    <row r="2449" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2449" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2449">
+        <v>20231203</v>
+      </c>
+      <c r="C2449">
+        <v>1</v>
+      </c>
+      <c r="D2449">
+        <v>0</v>
+      </c>
+      <c r="E2449">
+        <v>1</v>
+      </c>
+      <c r="F2449">
+        <v>1</v>
+      </c>
+      <c r="G2449" t="str">
+        <f t="shared" si="199"/>
+        <v>03</v>
+      </c>
+      <c r="H2449" t="str">
+        <f t="shared" si="200"/>
+        <v>12</v>
+      </c>
+      <c r="I2449" t="str">
+        <f t="shared" si="201"/>
+        <v>2023</v>
+      </c>
+      <c r="J2449" t="str">
+        <f t="shared" si="202"/>
+        <v>03/12/2023</v>
+      </c>
+    </row>
+    <row r="2450" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2450" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2450">
+        <v>20231203</v>
+      </c>
+      <c r="C2450">
+        <v>1</v>
+      </c>
+      <c r="D2450">
+        <v>0</v>
+      </c>
+      <c r="E2450">
+        <v>1</v>
+      </c>
+      <c r="F2450">
+        <v>1</v>
+      </c>
+      <c r="G2450" t="str">
+        <f t="shared" si="199"/>
+        <v>03</v>
+      </c>
+      <c r="H2450" t="str">
+        <f t="shared" si="200"/>
+        <v>12</v>
+      </c>
+      <c r="I2450" t="str">
+        <f t="shared" si="201"/>
+        <v>2023</v>
+      </c>
+      <c r="J2450" t="str">
+        <f t="shared" si="202"/>
+        <v>03/12/2023</v>
+      </c>
+    </row>
+    <row r="2451" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2451" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2451">
+        <v>20231128</v>
+      </c>
+      <c r="C2451">
+        <v>1</v>
+      </c>
+      <c r="D2451">
+        <v>0</v>
+      </c>
+      <c r="E2451">
+        <v>1</v>
+      </c>
+      <c r="F2451">
+        <v>1</v>
+      </c>
+      <c r="G2451" t="str">
+        <f t="shared" si="199"/>
+        <v>28</v>
+      </c>
+      <c r="H2451" t="str">
+        <f t="shared" si="200"/>
+        <v>11</v>
+      </c>
+      <c r="I2451" t="str">
+        <f t="shared" si="201"/>
+        <v>2023</v>
+      </c>
+      <c r="J2451" t="str">
+        <f t="shared" si="202"/>
+        <v>28/11/2023</v>
+      </c>
+    </row>
+    <row r="2452" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2452" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2452">
+        <v>20231130</v>
+      </c>
+      <c r="C2452">
+        <v>1</v>
+      </c>
+      <c r="D2452">
+        <v>0</v>
+      </c>
+      <c r="E2452">
+        <v>2</v>
+      </c>
+      <c r="F2452">
+        <v>2</v>
+      </c>
+      <c r="G2452" t="str">
+        <f t="shared" si="199"/>
+        <v>30</v>
+      </c>
+      <c r="H2452" t="str">
+        <f t="shared" si="200"/>
+        <v>11</v>
+      </c>
+      <c r="I2452" t="str">
+        <f t="shared" si="201"/>
+        <v>2023</v>
+      </c>
+      <c r="J2452" t="str">
+        <f t="shared" si="202"/>
+        <v>30/11/2023</v>
+      </c>
+    </row>
+    <row r="2453" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2453" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2453">
+        <v>20231202</v>
+      </c>
+      <c r="C2453">
+        <v>1</v>
+      </c>
+      <c r="D2453">
+        <v>0</v>
+      </c>
+      <c r="E2453">
+        <v>1</v>
+      </c>
+      <c r="F2453">
+        <v>1</v>
+      </c>
+      <c r="G2453" t="str">
+        <f t="shared" si="199"/>
+        <v>02</v>
+      </c>
+      <c r="H2453" t="str">
+        <f t="shared" si="200"/>
+        <v>12</v>
+      </c>
+      <c r="I2453" t="str">
+        <f t="shared" si="201"/>
+        <v>2023</v>
+      </c>
+      <c r="J2453" t="str">
+        <f t="shared" si="202"/>
+        <v>02/12/2023</v>
+      </c>
+    </row>
+    <row r="2454" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2454" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2454">
+        <v>20231127</v>
+      </c>
+      <c r="C2454">
+        <v>1</v>
+      </c>
+      <c r="D2454">
+        <v>1</v>
+      </c>
+      <c r="E2454">
+        <v>3</v>
+      </c>
+      <c r="F2454">
+        <v>2</v>
+      </c>
+      <c r="G2454" t="str">
+        <f t="shared" si="199"/>
+        <v>27</v>
+      </c>
+      <c r="H2454" t="str">
+        <f t="shared" si="200"/>
+        <v>11</v>
+      </c>
+      <c r="I2454" t="str">
+        <f t="shared" si="201"/>
+        <v>2023</v>
+      </c>
+      <c r="J2454" t="str">
+        <f t="shared" si="202"/>
+        <v>27/11/2023</v>
+      </c>
+    </row>
+    <row r="2455" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2455" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2455">
+        <v>20231129</v>
+      </c>
+      <c r="C2455">
+        <v>1</v>
+      </c>
+      <c r="D2455">
+        <v>1</v>
+      </c>
+      <c r="E2455">
+        <v>2</v>
+      </c>
+      <c r="F2455">
+        <v>2</v>
+      </c>
+      <c r="G2455" t="str">
+        <f t="shared" si="199"/>
+        <v>29</v>
+      </c>
+      <c r="H2455" t="str">
+        <f t="shared" si="200"/>
+        <v>11</v>
+      </c>
+      <c r="I2455" t="str">
+        <f t="shared" si="201"/>
+        <v>2023</v>
+      </c>
+      <c r="J2455" t="str">
+        <f t="shared" si="202"/>
+        <v>29/11/2023</v>
+      </c>
+    </row>
+    <row r="2456" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2456" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2456">
+        <v>20231201</v>
+      </c>
+      <c r="C2456">
+        <v>1</v>
+      </c>
+      <c r="D2456">
+        <v>2</v>
+      </c>
+      <c r="E2456">
+        <v>3</v>
+      </c>
+      <c r="F2456">
+        <v>3</v>
+      </c>
+      <c r="G2456" t="str">
+        <f t="shared" si="199"/>
+        <v>01</v>
+      </c>
+      <c r="H2456" t="str">
+        <f t="shared" si="200"/>
+        <v>12</v>
+      </c>
+      <c r="I2456" t="str">
+        <f t="shared" si="201"/>
+        <v>2023</v>
+      </c>
+      <c r="J2456" t="str">
+        <f t="shared" si="202"/>
+        <v>01/12/2023</v>
+      </c>
+    </row>
+    <row r="2457" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2457" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2457">
+        <v>20231203</v>
+      </c>
+      <c r="C2457">
+        <v>1</v>
+      </c>
+      <c r="D2457">
+        <v>3</v>
+      </c>
+      <c r="E2457">
+        <v>4</v>
+      </c>
+      <c r="F2457">
+        <v>4</v>
+      </c>
+      <c r="G2457" t="str">
+        <f t="shared" si="199"/>
+        <v>03</v>
+      </c>
+      <c r="H2457" t="str">
+        <f t="shared" si="200"/>
+        <v>12</v>
+      </c>
+      <c r="I2457" t="str">
+        <f t="shared" si="201"/>
+        <v>2023</v>
+      </c>
+      <c r="J2457" t="str">
+        <f t="shared" si="202"/>
+        <v>03/12/2023</v>
+      </c>
+    </row>
+    <row r="2458" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2458" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2458">
+        <v>20231129</v>
+      </c>
+      <c r="C2458">
+        <v>1</v>
+      </c>
+      <c r="D2458">
+        <v>0</v>
+      </c>
+      <c r="E2458">
+        <v>1</v>
+      </c>
+      <c r="F2458">
+        <v>1</v>
+      </c>
+      <c r="G2458" t="str">
+        <f t="shared" si="199"/>
+        <v>29</v>
+      </c>
+      <c r="H2458" t="str">
+        <f t="shared" si="200"/>
+        <v>11</v>
+      </c>
+      <c r="I2458" t="str">
+        <f t="shared" si="201"/>
+        <v>2023</v>
+      </c>
+      <c r="J2458" t="str">
+        <f t="shared" si="202"/>
+        <v>29/11/2023</v>
+      </c>
+    </row>
+    <row r="2459" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2459" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2459">
+        <v>20231130</v>
+      </c>
+      <c r="C2459">
+        <v>1</v>
+      </c>
+      <c r="D2459">
+        <v>1</v>
+      </c>
+      <c r="E2459">
+        <v>2</v>
+      </c>
+      <c r="F2459">
+        <v>2</v>
+      </c>
+      <c r="G2459" t="str">
+        <f t="shared" si="199"/>
+        <v>30</v>
+      </c>
+      <c r="H2459" t="str">
+        <f t="shared" si="200"/>
+        <v>11</v>
+      </c>
+      <c r="I2459" t="str">
+        <f t="shared" si="201"/>
+        <v>2023</v>
+      </c>
+      <c r="J2459" t="str">
+        <f t="shared" si="202"/>
+        <v>30/11/2023</v>
+      </c>
+    </row>
+    <row r="2460" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2460" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2460">
+        <v>20231203</v>
+      </c>
+      <c r="C2460">
+        <v>1</v>
+      </c>
+      <c r="D2460">
+        <v>1</v>
+      </c>
+      <c r="E2460">
+        <v>2</v>
+      </c>
+      <c r="F2460">
+        <v>2</v>
+      </c>
+      <c r="G2460" t="str">
+        <f t="shared" ref="G2460:G2523" si="203">RIGHT(B2460,2)</f>
+        <v>03</v>
+      </c>
+      <c r="H2460" t="str">
+        <f t="shared" ref="H2460:H2523" si="204">MID(B2460,5,2)</f>
+        <v>12</v>
+      </c>
+      <c r="I2460" t="str">
+        <f t="shared" ref="I2460:I2523" si="205">LEFT(B2460,4)</f>
+        <v>2023</v>
+      </c>
+      <c r="J2460" t="str">
+        <f t="shared" ref="J2460:J2523" si="206">_xlfn.CONCAT(G2460,"/",H2460,"/",I2460)</f>
+        <v>03/12/2023</v>
+      </c>
+    </row>
+    <row r="2461" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2461" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2461">
+        <v>20231203</v>
+      </c>
+      <c r="C2461">
+        <v>1</v>
+      </c>
+      <c r="D2461">
+        <v>2</v>
+      </c>
+      <c r="E2461">
+        <v>3</v>
+      </c>
+      <c r="F2461">
+        <v>3</v>
+      </c>
+      <c r="G2461" t="str">
+        <f t="shared" si="203"/>
+        <v>03</v>
+      </c>
+      <c r="H2461" t="str">
+        <f t="shared" si="204"/>
+        <v>12</v>
+      </c>
+      <c r="I2461" t="str">
+        <f t="shared" si="205"/>
+        <v>2023</v>
+      </c>
+      <c r="J2461" t="str">
+        <f t="shared" si="206"/>
+        <v>03/12/2023</v>
+      </c>
+    </row>
+    <row r="2462" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2462" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2462">
+        <v>20231201</v>
+      </c>
+      <c r="C2462">
+        <v>1</v>
+      </c>
+      <c r="D2462">
+        <v>1</v>
+      </c>
+      <c r="E2462">
+        <v>2</v>
+      </c>
+      <c r="F2462">
+        <v>2</v>
+      </c>
+      <c r="G2462" t="str">
+        <f t="shared" si="203"/>
+        <v>01</v>
+      </c>
+      <c r="H2462" t="str">
+        <f t="shared" si="204"/>
+        <v>12</v>
+      </c>
+      <c r="I2462" t="str">
+        <f t="shared" si="205"/>
+        <v>2023</v>
+      </c>
+      <c r="J2462" t="str">
+        <f t="shared" si="206"/>
+        <v>01/12/2023</v>
+      </c>
+    </row>
+    <row r="2463" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2463" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2463">
+        <v>20231202</v>
+      </c>
+      <c r="C2463">
+        <v>1</v>
+      </c>
+      <c r="D2463">
+        <v>0</v>
+      </c>
+      <c r="E2463">
+        <v>1</v>
+      </c>
+      <c r="F2463">
+        <v>1</v>
+      </c>
+      <c r="G2463" t="str">
+        <f t="shared" si="203"/>
+        <v>02</v>
+      </c>
+      <c r="H2463" t="str">
+        <f t="shared" si="204"/>
+        <v>12</v>
+      </c>
+      <c r="I2463" t="str">
+        <f t="shared" si="205"/>
+        <v>2023</v>
+      </c>
+      <c r="J2463" t="str">
+        <f t="shared" si="206"/>
+        <v>02/12/2023</v>
+      </c>
+    </row>
+    <row r="2464" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2464" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2464">
+        <v>20231202</v>
+      </c>
+      <c r="C2464">
+        <v>1</v>
+      </c>
+      <c r="D2464">
+        <v>0</v>
+      </c>
+      <c r="E2464">
+        <v>1</v>
+      </c>
+      <c r="F2464">
+        <v>1</v>
+      </c>
+      <c r="G2464" t="str">
+        <f t="shared" si="203"/>
+        <v>02</v>
+      </c>
+      <c r="H2464" t="str">
+        <f t="shared" si="204"/>
+        <v>12</v>
+      </c>
+      <c r="I2464" t="str">
+        <f t="shared" si="205"/>
+        <v>2023</v>
+      </c>
+      <c r="J2464" t="str">
+        <f t="shared" si="206"/>
+        <v>02/12/2023</v>
+      </c>
+    </row>
+    <row r="2465" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2465" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2465">
+        <v>20231203</v>
+      </c>
+      <c r="C2465">
+        <v>1</v>
+      </c>
+      <c r="D2465">
+        <v>1</v>
+      </c>
+      <c r="E2465">
+        <v>2</v>
+      </c>
+      <c r="F2465">
+        <v>2</v>
+      </c>
+      <c r="G2465" t="str">
+        <f t="shared" si="203"/>
+        <v>03</v>
+      </c>
+      <c r="H2465" t="str">
+        <f t="shared" si="204"/>
+        <v>12</v>
+      </c>
+      <c r="I2465" t="str">
+        <f t="shared" si="205"/>
+        <v>2023</v>
+      </c>
+      <c r="J2465" t="str">
+        <f t="shared" si="206"/>
+        <v>03/12/2023</v>
+      </c>
+    </row>
+    <row r="2466" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2466" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2466">
+        <v>20231128</v>
+      </c>
+      <c r="C2466">
+        <v>1</v>
+      </c>
+      <c r="D2466">
+        <v>0</v>
+      </c>
+      <c r="E2466">
+        <v>1</v>
+      </c>
+      <c r="F2466">
+        <v>1</v>
+      </c>
+      <c r="G2466" t="str">
+        <f t="shared" si="203"/>
+        <v>28</v>
+      </c>
+      <c r="H2466" t="str">
+        <f t="shared" si="204"/>
+        <v>11</v>
+      </c>
+      <c r="I2466" t="str">
+        <f t="shared" si="205"/>
+        <v>2023</v>
+      </c>
+      <c r="J2466" t="str">
+        <f t="shared" si="206"/>
+        <v>28/11/2023</v>
+      </c>
+    </row>
+    <row r="2467" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2467" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2467">
+        <v>20231130</v>
+      </c>
+      <c r="C2467">
+        <v>1</v>
+      </c>
+      <c r="D2467">
+        <v>0</v>
+      </c>
+      <c r="E2467">
+        <v>1</v>
+      </c>
+      <c r="F2467">
+        <v>1</v>
+      </c>
+      <c r="G2467" t="str">
+        <f t="shared" si="203"/>
+        <v>30</v>
+      </c>
+      <c r="H2467" t="str">
+        <f t="shared" si="204"/>
+        <v>11</v>
+      </c>
+      <c r="I2467" t="str">
+        <f t="shared" si="205"/>
+        <v>2023</v>
+      </c>
+      <c r="J2467" t="str">
+        <f t="shared" si="206"/>
+        <v>30/11/2023</v>
+      </c>
+    </row>
+    <row r="2468" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2468" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2468">
+        <v>20231203</v>
+      </c>
+      <c r="C2468">
+        <v>1</v>
+      </c>
+      <c r="D2468">
+        <v>0</v>
+      </c>
+      <c r="E2468">
+        <v>1</v>
+      </c>
+      <c r="F2468">
+        <v>1</v>
+      </c>
+      <c r="G2468" t="str">
+        <f t="shared" si="203"/>
+        <v>03</v>
+      </c>
+      <c r="H2468" t="str">
+        <f t="shared" si="204"/>
+        <v>12</v>
+      </c>
+      <c r="I2468" t="str">
+        <f t="shared" si="205"/>
+        <v>2023</v>
+      </c>
+      <c r="J2468" t="str">
+        <f t="shared" si="206"/>
+        <v>03/12/2023</v>
+      </c>
+    </row>
+    <row r="2469" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2469" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2469">
+        <v>20231128</v>
+      </c>
+      <c r="C2469">
+        <v>1</v>
+      </c>
+      <c r="D2469">
+        <v>0</v>
+      </c>
+      <c r="E2469">
+        <v>1</v>
+      </c>
+      <c r="F2469">
+        <v>1</v>
+      </c>
+      <c r="G2469" t="str">
+        <f t="shared" si="203"/>
+        <v>28</v>
+      </c>
+      <c r="H2469" t="str">
+        <f t="shared" si="204"/>
+        <v>11</v>
+      </c>
+      <c r="I2469" t="str">
+        <f t="shared" si="205"/>
+        <v>2023</v>
+      </c>
+      <c r="J2469" t="str">
+        <f t="shared" si="206"/>
+        <v>28/11/2023</v>
+      </c>
+    </row>
+    <row r="2470" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2470" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2470">
+        <v>20231129</v>
+      </c>
+      <c r="C2470">
+        <v>1</v>
+      </c>
+      <c r="D2470">
+        <v>0</v>
+      </c>
+      <c r="E2470">
+        <v>1</v>
+      </c>
+      <c r="F2470">
+        <v>1</v>
+      </c>
+      <c r="G2470" t="str">
+        <f t="shared" si="203"/>
+        <v>29</v>
+      </c>
+      <c r="H2470" t="str">
+        <f t="shared" si="204"/>
+        <v>11</v>
+      </c>
+      <c r="I2470" t="str">
+        <f t="shared" si="205"/>
+        <v>2023</v>
+      </c>
+      <c r="J2470" t="str">
+        <f t="shared" si="206"/>
+        <v>29/11/2023</v>
+      </c>
+    </row>
+    <row r="2471" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2471" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2471">
+        <v>20231202</v>
+      </c>
+      <c r="C2471">
+        <v>1</v>
+      </c>
+      <c r="D2471">
+        <v>1</v>
+      </c>
+      <c r="E2471">
+        <v>2</v>
+      </c>
+      <c r="F2471">
+        <v>2</v>
+      </c>
+      <c r="G2471" t="str">
+        <f t="shared" si="203"/>
+        <v>02</v>
+      </c>
+      <c r="H2471" t="str">
+        <f t="shared" si="204"/>
+        <v>12</v>
+      </c>
+      <c r="I2471" t="str">
+        <f t="shared" si="205"/>
+        <v>2023</v>
+      </c>
+      <c r="J2471" t="str">
+        <f t="shared" si="206"/>
+        <v>02/12/2023</v>
+      </c>
+    </row>
+    <row r="2472" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2472" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2472">
+        <v>20231128</v>
+      </c>
+      <c r="C2472">
+        <v>1</v>
+      </c>
+      <c r="D2472">
+        <v>1</v>
+      </c>
+      <c r="E2472">
+        <v>2</v>
+      </c>
+      <c r="F2472">
+        <v>2</v>
+      </c>
+      <c r="G2472" t="str">
+        <f t="shared" si="203"/>
+        <v>28</v>
+      </c>
+      <c r="H2472" t="str">
+        <f t="shared" si="204"/>
+        <v>11</v>
+      </c>
+      <c r="I2472" t="str">
+        <f t="shared" si="205"/>
+        <v>2023</v>
+      </c>
+      <c r="J2472" t="str">
+        <f t="shared" si="206"/>
+        <v>28/11/2023</v>
+      </c>
+    </row>
+    <row r="2473" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2473" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2473">
+        <v>20231130</v>
+      </c>
+      <c r="C2473">
+        <v>1</v>
+      </c>
+      <c r="D2473">
+        <v>1</v>
+      </c>
+      <c r="E2473">
+        <v>3</v>
+      </c>
+      <c r="F2473">
+        <v>2</v>
+      </c>
+      <c r="G2473" t="str">
+        <f t="shared" si="203"/>
+        <v>30</v>
+      </c>
+      <c r="H2473" t="str">
+        <f t="shared" si="204"/>
+        <v>11</v>
+      </c>
+      <c r="I2473" t="str">
+        <f t="shared" si="205"/>
+        <v>2023</v>
+      </c>
+      <c r="J2473" t="str">
+        <f t="shared" si="206"/>
+        <v>30/11/2023</v>
+      </c>
+    </row>
+    <row r="2474" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2474" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2474">
+        <v>20231201</v>
+      </c>
+      <c r="C2474">
+        <v>1</v>
+      </c>
+      <c r="D2474">
+        <v>2</v>
+      </c>
+      <c r="E2474">
+        <v>3</v>
+      </c>
+      <c r="F2474">
+        <v>3</v>
+      </c>
+      <c r="G2474" t="str">
+        <f t="shared" si="203"/>
+        <v>01</v>
+      </c>
+      <c r="H2474" t="str">
+        <f t="shared" si="204"/>
+        <v>12</v>
+      </c>
+      <c r="I2474" t="str">
+        <f t="shared" si="205"/>
+        <v>2023</v>
+      </c>
+      <c r="J2474" t="str">
+        <f t="shared" si="206"/>
+        <v>01/12/2023</v>
+      </c>
+    </row>
+    <row r="2475" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2475" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2475">
+        <v>20231201</v>
+      </c>
+      <c r="C2475">
+        <v>1</v>
+      </c>
+      <c r="D2475">
+        <v>0</v>
+      </c>
+      <c r="E2475">
+        <v>1</v>
+      </c>
+      <c r="F2475">
+        <v>1</v>
+      </c>
+      <c r="G2475" t="str">
+        <f t="shared" si="203"/>
+        <v>01</v>
+      </c>
+      <c r="H2475" t="str">
+        <f t="shared" si="204"/>
+        <v>12</v>
+      </c>
+      <c r="I2475" t="str">
+        <f t="shared" si="205"/>
+        <v>2023</v>
+      </c>
+      <c r="J2475" t="str">
+        <f t="shared" si="206"/>
+        <v>01/12/2023</v>
+      </c>
+    </row>
+    <row r="2476" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2476" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2476">
+        <v>20231130</v>
+      </c>
+      <c r="C2476">
+        <v>1</v>
+      </c>
+      <c r="D2476">
+        <v>1</v>
+      </c>
+      <c r="E2476">
+        <v>2</v>
+      </c>
+      <c r="F2476">
+        <v>2</v>
+      </c>
+      <c r="G2476" t="str">
+        <f t="shared" si="203"/>
+        <v>30</v>
+      </c>
+      <c r="H2476" t="str">
+        <f t="shared" si="204"/>
+        <v>11</v>
+      </c>
+      <c r="I2476" t="str">
+        <f t="shared" si="205"/>
+        <v>2023</v>
+      </c>
+      <c r="J2476" t="str">
+        <f t="shared" si="206"/>
+        <v>30/11/2023</v>
+      </c>
+    </row>
+    <row r="2477" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2477" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2477">
+        <v>20231202</v>
+      </c>
+      <c r="C2477">
+        <v>1</v>
+      </c>
+      <c r="D2477">
+        <v>1</v>
+      </c>
+      <c r="E2477">
+        <v>2</v>
+      </c>
+      <c r="F2477">
+        <v>2</v>
+      </c>
+      <c r="G2477" t="str">
+        <f t="shared" si="203"/>
+        <v>02</v>
+      </c>
+      <c r="H2477" t="str">
+        <f t="shared" si="204"/>
+        <v>12</v>
+      </c>
+      <c r="I2477" t="str">
+        <f t="shared" si="205"/>
+        <v>2023</v>
+      </c>
+      <c r="J2477" t="str">
+        <f t="shared" si="206"/>
+        <v>02/12/2023</v>
+      </c>
+    </row>
+    <row r="2478" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2478" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2478">
+        <v>20231203</v>
+      </c>
+      <c r="C2478">
+        <v>1</v>
+      </c>
+      <c r="D2478">
+        <v>1</v>
+      </c>
+      <c r="E2478">
+        <v>2</v>
+      </c>
+      <c r="F2478">
+        <v>2</v>
+      </c>
+      <c r="G2478" t="str">
+        <f t="shared" si="203"/>
+        <v>03</v>
+      </c>
+      <c r="H2478" t="str">
+        <f t="shared" si="204"/>
+        <v>12</v>
+      </c>
+      <c r="I2478" t="str">
+        <f t="shared" si="205"/>
+        <v>2023</v>
+      </c>
+      <c r="J2478" t="str">
+        <f t="shared" si="206"/>
+        <v>03/12/2023</v>
+      </c>
+    </row>
+    <row r="2479" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2479" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2479">
+        <v>20231127</v>
+      </c>
+      <c r="C2479">
+        <v>1</v>
+      </c>
+      <c r="D2479">
+        <v>1</v>
+      </c>
+      <c r="E2479">
+        <v>2</v>
+      </c>
+      <c r="F2479">
+        <v>2</v>
+      </c>
+      <c r="G2479" t="str">
+        <f t="shared" si="203"/>
+        <v>27</v>
+      </c>
+      <c r="H2479" t="str">
+        <f t="shared" si="204"/>
+        <v>11</v>
+      </c>
+      <c r="I2479" t="str">
+        <f t="shared" si="205"/>
+        <v>2023</v>
+      </c>
+      <c r="J2479" t="str">
+        <f t="shared" si="206"/>
+        <v>27/11/2023</v>
+      </c>
+    </row>
+    <row r="2480" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2480" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2480">
+        <v>20231202</v>
+      </c>
+      <c r="C2480">
+        <v>1</v>
+      </c>
+      <c r="D2480">
+        <v>2</v>
+      </c>
+      <c r="E2480">
+        <v>3</v>
+      </c>
+      <c r="F2480">
+        <v>3</v>
+      </c>
+      <c r="G2480" t="str">
+        <f t="shared" si="203"/>
+        <v>02</v>
+      </c>
+      <c r="H2480" t="str">
+        <f t="shared" si="204"/>
+        <v>12</v>
+      </c>
+      <c r="I2480" t="str">
+        <f t="shared" si="205"/>
+        <v>2023</v>
+      </c>
+      <c r="J2480" t="str">
+        <f t="shared" si="206"/>
+        <v>02/12/2023</v>
+      </c>
+    </row>
+    <row r="2481" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2481" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2481">
+        <v>20231203</v>
+      </c>
+      <c r="C2481">
+        <v>1</v>
+      </c>
+      <c r="D2481">
+        <v>0</v>
+      </c>
+      <c r="E2481">
+        <v>1</v>
+      </c>
+      <c r="F2481">
+        <v>1</v>
+      </c>
+      <c r="G2481" t="str">
+        <f t="shared" si="203"/>
+        <v>03</v>
+      </c>
+      <c r="H2481" t="str">
+        <f t="shared" si="204"/>
+        <v>12</v>
+      </c>
+      <c r="I2481" t="str">
+        <f t="shared" si="205"/>
+        <v>2023</v>
+      </c>
+      <c r="J2481" t="str">
+        <f t="shared" si="206"/>
+        <v>03/12/2023</v>
+      </c>
+    </row>
+    <row r="2482" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2482" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2482">
+        <v>20231202</v>
+      </c>
+      <c r="C2482">
+        <v>1</v>
+      </c>
+      <c r="D2482">
+        <v>2</v>
+      </c>
+      <c r="E2482">
+        <v>3</v>
+      </c>
+      <c r="F2482">
+        <v>3</v>
+      </c>
+      <c r="G2482" t="str">
+        <f t="shared" si="203"/>
+        <v>02</v>
+      </c>
+      <c r="H2482" t="str">
+        <f t="shared" si="204"/>
+        <v>12</v>
+      </c>
+      <c r="I2482" t="str">
+        <f t="shared" si="205"/>
+        <v>2023</v>
+      </c>
+      <c r="J2482" t="str">
+        <f t="shared" si="206"/>
+        <v>02/12/2023</v>
+      </c>
+    </row>
+    <row r="2483" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2483" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2483">
+        <v>20231128</v>
+      </c>
+      <c r="C2483">
+        <v>1</v>
+      </c>
+      <c r="D2483">
+        <v>0</v>
+      </c>
+      <c r="E2483">
+        <v>1</v>
+      </c>
+      <c r="F2483">
+        <v>1</v>
+      </c>
+      <c r="G2483" t="str">
+        <f t="shared" si="203"/>
+        <v>28</v>
+      </c>
+      <c r="H2483" t="str">
+        <f t="shared" si="204"/>
+        <v>11</v>
+      </c>
+      <c r="I2483" t="str">
+        <f t="shared" si="205"/>
+        <v>2023</v>
+      </c>
+      <c r="J2483" t="str">
+        <f t="shared" si="206"/>
+        <v>28/11/2023</v>
+      </c>
+    </row>
+    <row r="2484" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2484" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2484">
+        <v>20231201</v>
+      </c>
+      <c r="C2484">
+        <v>1</v>
+      </c>
+      <c r="D2484">
+        <v>0</v>
+      </c>
+      <c r="E2484">
+        <v>1</v>
+      </c>
+      <c r="F2484">
+        <v>1</v>
+      </c>
+      <c r="G2484" t="str">
+        <f t="shared" si="203"/>
+        <v>01</v>
+      </c>
+      <c r="H2484" t="str">
+        <f t="shared" si="204"/>
+        <v>12</v>
+      </c>
+      <c r="I2484" t="str">
+        <f t="shared" si="205"/>
+        <v>2023</v>
+      </c>
+      <c r="J2484" t="str">
+        <f t="shared" si="206"/>
+        <v>01/12/2023</v>
+      </c>
+    </row>
+    <row r="2485" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2485" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2485">
+        <v>20231128</v>
+      </c>
+      <c r="C2485">
+        <v>0</v>
+      </c>
+      <c r="D2485">
+        <v>1</v>
+      </c>
+      <c r="E2485">
+        <v>1</v>
+      </c>
+      <c r="F2485">
+        <v>1</v>
+      </c>
+      <c r="G2485" t="str">
+        <f t="shared" si="203"/>
+        <v>28</v>
+      </c>
+      <c r="H2485" t="str">
+        <f t="shared" si="204"/>
+        <v>11</v>
+      </c>
+      <c r="I2485" t="str">
+        <f t="shared" si="205"/>
+        <v>2023</v>
+      </c>
+      <c r="J2485" t="str">
+        <f t="shared" si="206"/>
+        <v>28/11/2023</v>
+      </c>
+    </row>
+    <row r="2486" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2486" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2486">
+        <v>20231130</v>
+      </c>
+      <c r="C2486">
+        <v>0</v>
+      </c>
+      <c r="D2486">
+        <v>2</v>
+      </c>
+      <c r="E2486">
+        <v>2</v>
+      </c>
+      <c r="F2486">
+        <v>2</v>
+      </c>
+      <c r="G2486" t="str">
+        <f t="shared" si="203"/>
+        <v>30</v>
+      </c>
+      <c r="H2486" t="str">
+        <f t="shared" si="204"/>
+        <v>11</v>
+      </c>
+      <c r="I2486" t="str">
+        <f t="shared" si="205"/>
+        <v>2023</v>
+      </c>
+      <c r="J2486" t="str">
+        <f t="shared" si="206"/>
+        <v>30/11/2023</v>
+      </c>
+    </row>
+    <row r="2487" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2487" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2487">
+        <v>20231203</v>
+      </c>
+      <c r="C2487">
+        <v>0</v>
+      </c>
+      <c r="D2487">
+        <v>1</v>
+      </c>
+      <c r="E2487">
+        <v>1</v>
+      </c>
+      <c r="F2487">
+        <v>1</v>
+      </c>
+      <c r="G2487" t="str">
+        <f t="shared" si="203"/>
+        <v>03</v>
+      </c>
+      <c r="H2487" t="str">
+        <f t="shared" si="204"/>
+        <v>12</v>
+      </c>
+      <c r="I2487" t="str">
+        <f t="shared" si="205"/>
+        <v>2023</v>
+      </c>
+      <c r="J2487" t="str">
+        <f t="shared" si="206"/>
+        <v>03/12/2023</v>
+      </c>
+    </row>
+    <row r="2488" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2488" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2488">
+        <v>20231201</v>
+      </c>
+      <c r="C2488">
+        <v>0</v>
+      </c>
+      <c r="D2488">
+        <v>0</v>
+      </c>
+      <c r="E2488">
+        <v>1</v>
+      </c>
+      <c r="F2488">
+        <v>1</v>
+      </c>
+      <c r="G2488" t="str">
+        <f t="shared" si="203"/>
+        <v>01</v>
+      </c>
+      <c r="H2488" t="str">
+        <f t="shared" si="204"/>
+        <v>12</v>
+      </c>
+      <c r="I2488" t="str">
+        <f t="shared" si="205"/>
+        <v>2023</v>
+      </c>
+      <c r="J2488" t="str">
+        <f t="shared" si="206"/>
+        <v>01/12/2023</v>
+      </c>
+    </row>
+    <row r="2489" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2489" t="s">
+        <v>173</v>
+      </c>
+      <c r="B2489">
+        <v>20231201</v>
+      </c>
+      <c r="C2489">
+        <v>0</v>
+      </c>
+      <c r="D2489">
+        <v>1</v>
+      </c>
+      <c r="E2489">
+        <v>1</v>
+      </c>
+      <c r="F2489">
+        <v>1</v>
+      </c>
+      <c r="G2489" t="str">
+        <f t="shared" si="203"/>
+        <v>01</v>
+      </c>
+      <c r="H2489" t="str">
+        <f t="shared" si="204"/>
+        <v>12</v>
+      </c>
+      <c r="I2489" t="str">
+        <f t="shared" si="205"/>
+        <v>2023</v>
+      </c>
+      <c r="J2489" t="str">
+        <f t="shared" si="206"/>
+        <v>01/12/2023</v>
+      </c>
+    </row>
+    <row r="2490" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2490" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2490">
+        <v>20231203</v>
+      </c>
+      <c r="C2490">
+        <v>0</v>
+      </c>
+      <c r="D2490">
+        <v>5</v>
+      </c>
+      <c r="E2490">
+        <v>5</v>
+      </c>
+      <c r="F2490">
+        <v>5</v>
+      </c>
+      <c r="G2490" t="str">
+        <f t="shared" si="203"/>
+        <v>03</v>
+      </c>
+      <c r="H2490" t="str">
+        <f t="shared" si="204"/>
+        <v>12</v>
+      </c>
+      <c r="I2490" t="str">
+        <f t="shared" si="205"/>
+        <v>2023</v>
+      </c>
+      <c r="J2490" t="str">
+        <f t="shared" si="206"/>
+        <v>03/12/2023</v>
+      </c>
+    </row>
+    <row r="2491" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2491" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2491">
+        <v>20231201</v>
+      </c>
+      <c r="C2491">
+        <v>0</v>
+      </c>
+      <c r="D2491">
+        <v>0</v>
+      </c>
+      <c r="E2491">
+        <v>1</v>
+      </c>
+      <c r="F2491">
+        <v>1</v>
+      </c>
+      <c r="G2491" t="str">
+        <f t="shared" si="203"/>
+        <v>01</v>
+      </c>
+      <c r="H2491" t="str">
+        <f t="shared" si="204"/>
+        <v>12</v>
+      </c>
+      <c r="I2491" t="str">
+        <f t="shared" si="205"/>
+        <v>2023</v>
+      </c>
+      <c r="J2491" t="str">
+        <f t="shared" si="206"/>
+        <v>01/12/2023</v>
+      </c>
+    </row>
+    <row r="2492" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2492" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2492">
+        <v>20231201</v>
+      </c>
+      <c r="C2492">
+        <v>0</v>
+      </c>
+      <c r="D2492">
+        <v>1</v>
+      </c>
+      <c r="E2492">
+        <v>1</v>
+      </c>
+      <c r="F2492">
+        <v>1</v>
+      </c>
+      <c r="G2492" t="str">
+        <f t="shared" si="203"/>
+        <v>01</v>
+      </c>
+      <c r="H2492" t="str">
+        <f t="shared" si="204"/>
+        <v>12</v>
+      </c>
+      <c r="I2492" t="str">
+        <f t="shared" si="205"/>
+        <v>2023</v>
+      </c>
+      <c r="J2492" t="str">
+        <f t="shared" si="206"/>
+        <v>01/12/2023</v>
+      </c>
+    </row>
+    <row r="2493" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2493" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2493">
+        <v>20231201</v>
+      </c>
+      <c r="C2493">
+        <v>0</v>
+      </c>
+      <c r="D2493">
+        <v>1</v>
+      </c>
+      <c r="E2493">
+        <v>1</v>
+      </c>
+      <c r="F2493">
+        <v>1</v>
+      </c>
+      <c r="G2493" t="str">
+        <f t="shared" si="203"/>
+        <v>01</v>
+      </c>
+      <c r="H2493" t="str">
+        <f t="shared" si="204"/>
+        <v>12</v>
+      </c>
+      <c r="I2493" t="str">
+        <f t="shared" si="205"/>
+        <v>2023</v>
+      </c>
+      <c r="J2493" t="str">
+        <f t="shared" si="206"/>
+        <v>01/12/2023</v>
+      </c>
+    </row>
+    <row r="2494" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2494" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2494">
+        <v>20231128</v>
+      </c>
+      <c r="C2494">
+        <v>0</v>
+      </c>
+      <c r="D2494">
+        <v>1</v>
+      </c>
+      <c r="E2494">
+        <v>1</v>
+      </c>
+      <c r="F2494">
+        <v>1</v>
+      </c>
+      <c r="G2494" t="str">
+        <f t="shared" si="203"/>
+        <v>28</v>
+      </c>
+      <c r="H2494" t="str">
+        <f t="shared" si="204"/>
+        <v>11</v>
+      </c>
+      <c r="I2494" t="str">
+        <f t="shared" si="205"/>
+        <v>2023</v>
+      </c>
+      <c r="J2494" t="str">
+        <f t="shared" si="206"/>
+        <v>28/11/2023</v>
+      </c>
+    </row>
+    <row r="2495" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2495" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2495">
+        <v>20231128</v>
+      </c>
+      <c r="C2495">
+        <v>0</v>
+      </c>
+      <c r="D2495">
+        <v>1</v>
+      </c>
+      <c r="E2495">
+        <v>1</v>
+      </c>
+      <c r="F2495">
+        <v>1</v>
+      </c>
+      <c r="G2495" t="str">
+        <f t="shared" si="203"/>
+        <v>28</v>
+      </c>
+      <c r="H2495" t="str">
+        <f t="shared" si="204"/>
+        <v>11</v>
+      </c>
+      <c r="I2495" t="str">
+        <f t="shared" si="205"/>
+        <v>2023</v>
+      </c>
+      <c r="J2495" t="str">
+        <f t="shared" si="206"/>
+        <v>28/11/2023</v>
+      </c>
+    </row>
+    <row r="2496" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2496" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2496">
+        <v>20231201</v>
+      </c>
+      <c r="C2496">
+        <v>0</v>
+      </c>
+      <c r="D2496">
+        <v>1</v>
+      </c>
+      <c r="E2496">
+        <v>1</v>
+      </c>
+      <c r="F2496">
+        <v>1</v>
+      </c>
+      <c r="G2496" t="str">
+        <f t="shared" si="203"/>
+        <v>01</v>
+      </c>
+      <c r="H2496" t="str">
+        <f t="shared" si="204"/>
+        <v>12</v>
+      </c>
+      <c r="I2496" t="str">
+        <f t="shared" si="205"/>
+        <v>2023</v>
+      </c>
+      <c r="J2496" t="str">
+        <f t="shared" si="206"/>
+        <v>01/12/2023</v>
+      </c>
+    </row>
+    <row r="2497" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2497" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2497">
+        <v>20231127</v>
+      </c>
+      <c r="C2497">
+        <v>0</v>
+      </c>
+      <c r="D2497">
+        <v>1</v>
+      </c>
+      <c r="E2497">
+        <v>1</v>
+      </c>
+      <c r="F2497">
+        <v>1</v>
+      </c>
+      <c r="G2497" t="str">
+        <f t="shared" si="203"/>
+        <v>27</v>
+      </c>
+      <c r="H2497" t="str">
+        <f t="shared" si="204"/>
+        <v>11</v>
+      </c>
+      <c r="I2497" t="str">
+        <f t="shared" si="205"/>
+        <v>2023</v>
+      </c>
+      <c r="J2497" t="str">
+        <f t="shared" si="206"/>
+        <v>27/11/2023</v>
+      </c>
+    </row>
+    <row r="2498" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2498" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2498">
+        <v>20231128</v>
+      </c>
+      <c r="C2498">
+        <v>0</v>
+      </c>
+      <c r="D2498">
+        <v>1</v>
+      </c>
+      <c r="E2498">
+        <v>1</v>
+      </c>
+      <c r="F2498">
+        <v>1</v>
+      </c>
+      <c r="G2498" t="str">
+        <f t="shared" si="203"/>
+        <v>28</v>
+      </c>
+      <c r="H2498" t="str">
+        <f t="shared" si="204"/>
+        <v>11</v>
+      </c>
+      <c r="I2498" t="str">
+        <f t="shared" si="205"/>
+        <v>2023</v>
+      </c>
+      <c r="J2498" t="str">
+        <f t="shared" si="206"/>
+        <v>28/11/2023</v>
+      </c>
+    </row>
+    <row r="2499" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2499" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2499">
+        <v>20231130</v>
+      </c>
+      <c r="C2499">
+        <v>0</v>
+      </c>
+      <c r="D2499">
+        <v>2</v>
+      </c>
+      <c r="E2499">
+        <v>2</v>
+      </c>
+      <c r="F2499">
+        <v>2</v>
+      </c>
+      <c r="G2499" t="str">
+        <f t="shared" si="203"/>
+        <v>30</v>
+      </c>
+      <c r="H2499" t="str">
+        <f t="shared" si="204"/>
+        <v>11</v>
+      </c>
+      <c r="I2499" t="str">
+        <f t="shared" si="205"/>
+        <v>2023</v>
+      </c>
+      <c r="J2499" t="str">
+        <f t="shared" si="206"/>
+        <v>30/11/2023</v>
+      </c>
+    </row>
+    <row r="2500" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2500" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2500">
+        <v>20231203</v>
+      </c>
+      <c r="C2500">
+        <v>0</v>
+      </c>
+      <c r="D2500">
+        <v>2</v>
+      </c>
+      <c r="E2500">
+        <v>2</v>
+      </c>
+      <c r="F2500">
+        <v>2</v>
+      </c>
+      <c r="G2500" t="str">
+        <f t="shared" si="203"/>
+        <v>03</v>
+      </c>
+      <c r="H2500" t="str">
+        <f t="shared" si="204"/>
+        <v>12</v>
+      </c>
+      <c r="I2500" t="str">
+        <f t="shared" si="205"/>
+        <v>2023</v>
+      </c>
+      <c r="J2500" t="str">
+        <f t="shared" si="206"/>
+        <v>03/12/2023</v>
+      </c>
+    </row>
+    <row r="2501" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2501" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2501">
+        <v>20231128</v>
+      </c>
+      <c r="C2501">
+        <v>0</v>
+      </c>
+      <c r="D2501">
+        <v>1</v>
+      </c>
+      <c r="E2501">
+        <v>1</v>
+      </c>
+      <c r="F2501">
+        <v>1</v>
+      </c>
+      <c r="G2501" t="str">
+        <f t="shared" si="203"/>
+        <v>28</v>
+      </c>
+      <c r="H2501" t="str">
+        <f t="shared" si="204"/>
+        <v>11</v>
+      </c>
+      <c r="I2501" t="str">
+        <f t="shared" si="205"/>
+        <v>2023</v>
+      </c>
+      <c r="J2501" t="str">
+        <f t="shared" si="206"/>
+        <v>28/11/2023</v>
+      </c>
+    </row>
+    <row r="2502" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2502" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2502">
+        <v>20231127</v>
+      </c>
+      <c r="C2502">
+        <v>0</v>
+      </c>
+      <c r="D2502">
+        <v>1</v>
+      </c>
+      <c r="E2502">
+        <v>1</v>
+      </c>
+      <c r="F2502">
+        <v>1</v>
+      </c>
+      <c r="G2502" t="str">
+        <f t="shared" si="203"/>
+        <v>27</v>
+      </c>
+      <c r="H2502" t="str">
+        <f t="shared" si="204"/>
+        <v>11</v>
+      </c>
+      <c r="I2502" t="str">
+        <f t="shared" si="205"/>
+        <v>2023</v>
+      </c>
+      <c r="J2502" t="str">
+        <f t="shared" si="206"/>
+        <v>27/11/2023</v>
+      </c>
+    </row>
+    <row r="2503" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2503" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2503">
+        <v>20231128</v>
+      </c>
+      <c r="C2503">
+        <v>0</v>
+      </c>
+      <c r="D2503">
+        <v>4</v>
+      </c>
+      <c r="E2503">
+        <v>4</v>
+      </c>
+      <c r="F2503">
+        <v>4</v>
+      </c>
+      <c r="G2503" t="str">
+        <f t="shared" si="203"/>
+        <v>28</v>
+      </c>
+      <c r="H2503" t="str">
+        <f t="shared" si="204"/>
+        <v>11</v>
+      </c>
+      <c r="I2503" t="str">
+        <f t="shared" si="205"/>
+        <v>2023</v>
+      </c>
+      <c r="J2503" t="str">
+        <f t="shared" si="206"/>
+        <v>28/11/2023</v>
+      </c>
+    </row>
+    <row r="2504" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2504" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2504">
+        <v>20231130</v>
+      </c>
+      <c r="C2504">
+        <v>0</v>
+      </c>
+      <c r="D2504">
+        <v>1</v>
+      </c>
+      <c r="E2504">
+        <v>1</v>
+      </c>
+      <c r="F2504">
+        <v>1</v>
+      </c>
+      <c r="G2504" t="str">
+        <f t="shared" si="203"/>
+        <v>30</v>
+      </c>
+      <c r="H2504" t="str">
+        <f t="shared" si="204"/>
+        <v>11</v>
+      </c>
+      <c r="I2504" t="str">
+        <f t="shared" si="205"/>
+        <v>2023</v>
+      </c>
+      <c r="J2504" t="str">
+        <f t="shared" si="206"/>
+        <v>30/11/2023</v>
+      </c>
+    </row>
+    <row r="2505" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2505" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2505">
+        <v>20231129</v>
+      </c>
+      <c r="C2505">
+        <v>0</v>
+      </c>
+      <c r="D2505">
+        <v>1</v>
+      </c>
+      <c r="E2505">
+        <v>1</v>
+      </c>
+      <c r="F2505">
+        <v>1</v>
+      </c>
+      <c r="G2505" t="str">
+        <f t="shared" si="203"/>
+        <v>29</v>
+      </c>
+      <c r="H2505" t="str">
+        <f t="shared" si="204"/>
+        <v>11</v>
+      </c>
+      <c r="I2505" t="str">
+        <f t="shared" si="205"/>
+        <v>2023</v>
+      </c>
+      <c r="J2505" t="str">
+        <f t="shared" si="206"/>
+        <v>29/11/2023</v>
+      </c>
+    </row>
+    <row r="2506" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2506" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2506">
+        <v>20231130</v>
+      </c>
+      <c r="C2506">
+        <v>0</v>
+      </c>
+      <c r="D2506">
+        <v>1</v>
+      </c>
+      <c r="E2506">
+        <v>2</v>
+      </c>
+      <c r="F2506">
+        <v>2</v>
+      </c>
+      <c r="G2506" t="str">
+        <f t="shared" si="203"/>
+        <v>30</v>
+      </c>
+      <c r="H2506" t="str">
+        <f t="shared" si="204"/>
+        <v>11</v>
+      </c>
+      <c r="I2506" t="str">
+        <f t="shared" si="205"/>
+        <v>2023</v>
+      </c>
+      <c r="J2506" t="str">
+        <f t="shared" si="206"/>
+        <v>30/11/2023</v>
+      </c>
+    </row>
+    <row r="2507" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2507" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2507">
+        <v>20231201</v>
+      </c>
+      <c r="C2507">
+        <v>0</v>
+      </c>
+      <c r="D2507">
+        <v>1</v>
+      </c>
+      <c r="E2507">
+        <v>1</v>
+      </c>
+      <c r="F2507">
+        <v>1</v>
+      </c>
+      <c r="G2507" t="str">
+        <f t="shared" si="203"/>
+        <v>01</v>
+      </c>
+      <c r="H2507" t="str">
+        <f t="shared" si="204"/>
+        <v>12</v>
+      </c>
+      <c r="I2507" t="str">
+        <f t="shared" si="205"/>
+        <v>2023</v>
+      </c>
+      <c r="J2507" t="str">
+        <f t="shared" si="206"/>
+        <v>01/12/2023</v>
+      </c>
+    </row>
+    <row r="2508" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2508" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2508">
+        <v>20231202</v>
+      </c>
+      <c r="C2508">
+        <v>0</v>
+      </c>
+      <c r="D2508">
+        <v>2</v>
+      </c>
+      <c r="E2508">
+        <v>2</v>
+      </c>
+      <c r="F2508">
+        <v>2</v>
+      </c>
+      <c r="G2508" t="str">
+        <f t="shared" si="203"/>
+        <v>02</v>
+      </c>
+      <c r="H2508" t="str">
+        <f t="shared" si="204"/>
+        <v>12</v>
+      </c>
+      <c r="I2508" t="str">
+        <f t="shared" si="205"/>
+        <v>2023</v>
+      </c>
+      <c r="J2508" t="str">
+        <f t="shared" si="206"/>
+        <v>02/12/2023</v>
+      </c>
+    </row>
+    <row r="2509" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2509" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2509">
+        <v>20231203</v>
+      </c>
+      <c r="C2509">
+        <v>0</v>
+      </c>
+      <c r="D2509">
+        <v>2</v>
+      </c>
+      <c r="E2509">
+        <v>2</v>
+      </c>
+      <c r="F2509">
+        <v>2</v>
+      </c>
+      <c r="G2509" t="str">
+        <f t="shared" si="203"/>
+        <v>03</v>
+      </c>
+      <c r="H2509" t="str">
+        <f t="shared" si="204"/>
+        <v>12</v>
+      </c>
+      <c r="I2509" t="str">
+        <f t="shared" si="205"/>
+        <v>2023</v>
+      </c>
+      <c r="J2509" t="str">
+        <f t="shared" si="206"/>
+        <v>03/12/2023</v>
+      </c>
+    </row>
+    <row r="2510" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2510" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2510">
+        <v>20231129</v>
+      </c>
+      <c r="C2510">
+        <v>0</v>
+      </c>
+      <c r="D2510">
+        <v>1</v>
+      </c>
+      <c r="E2510">
+        <v>1</v>
+      </c>
+      <c r="F2510">
+        <v>1</v>
+      </c>
+      <c r="G2510" t="str">
+        <f t="shared" si="203"/>
+        <v>29</v>
+      </c>
+      <c r="H2510" t="str">
+        <f t="shared" si="204"/>
+        <v>11</v>
+      </c>
+      <c r="I2510" t="str">
+        <f t="shared" si="205"/>
+        <v>2023</v>
+      </c>
+      <c r="J2510" t="str">
+        <f t="shared" si="206"/>
+        <v>29/11/2023</v>
+      </c>
+    </row>
+    <row r="2511" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2511" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2511">
+        <v>20231201</v>
+      </c>
+      <c r="C2511">
+        <v>0</v>
+      </c>
+      <c r="D2511">
+        <v>1</v>
+      </c>
+      <c r="E2511">
+        <v>1</v>
+      </c>
+      <c r="F2511">
+        <v>1</v>
+      </c>
+      <c r="G2511" t="str">
+        <f t="shared" si="203"/>
+        <v>01</v>
+      </c>
+      <c r="H2511" t="str">
+        <f t="shared" si="204"/>
+        <v>12</v>
+      </c>
+      <c r="I2511" t="str">
+        <f t="shared" si="205"/>
+        <v>2023</v>
+      </c>
+      <c r="J2511" t="str">
+        <f t="shared" si="206"/>
+        <v>01/12/2023</v>
+      </c>
+    </row>
+    <row r="2512" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2512" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2512">
+        <v>20231127</v>
+      </c>
+      <c r="C2512">
+        <v>0</v>
+      </c>
+      <c r="D2512">
+        <v>0</v>
+      </c>
+      <c r="E2512">
+        <v>1</v>
+      </c>
+      <c r="F2512">
+        <v>1</v>
+      </c>
+      <c r="G2512" t="str">
+        <f t="shared" si="203"/>
+        <v>27</v>
+      </c>
+      <c r="H2512" t="str">
+        <f t="shared" si="204"/>
+        <v>11</v>
+      </c>
+      <c r="I2512" t="str">
+        <f t="shared" si="205"/>
+        <v>2023</v>
+      </c>
+      <c r="J2512" t="str">
+        <f t="shared" si="206"/>
+        <v>27/11/2023</v>
+      </c>
+    </row>
+    <row r="2513" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2513" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2513">
+        <v>20231201</v>
+      </c>
+      <c r="C2513">
+        <v>0</v>
+      </c>
+      <c r="D2513">
+        <v>2</v>
+      </c>
+      <c r="E2513">
+        <v>2</v>
+      </c>
+      <c r="F2513">
+        <v>2</v>
+      </c>
+      <c r="G2513" t="str">
+        <f t="shared" si="203"/>
+        <v>01</v>
+      </c>
+      <c r="H2513" t="str">
+        <f t="shared" si="204"/>
+        <v>12</v>
+      </c>
+      <c r="I2513" t="str">
+        <f t="shared" si="205"/>
+        <v>2023</v>
+      </c>
+      <c r="J2513" t="str">
+        <f t="shared" si="206"/>
+        <v>01/12/2023</v>
+      </c>
+    </row>
+    <row r="2514" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2514" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2514">
+        <v>20231203</v>
+      </c>
+      <c r="C2514">
+        <v>0</v>
+      </c>
+      <c r="D2514">
+        <v>0</v>
+      </c>
+      <c r="E2514">
+        <v>1</v>
+      </c>
+      <c r="F2514">
+        <v>0</v>
+      </c>
+      <c r="G2514" t="str">
+        <f t="shared" si="203"/>
+        <v>03</v>
+      </c>
+      <c r="H2514" t="str">
+        <f t="shared" si="204"/>
+        <v>12</v>
+      </c>
+      <c r="I2514" t="str">
+        <f t="shared" si="205"/>
+        <v>2023</v>
+      </c>
+      <c r="J2514" t="str">
+        <f t="shared" si="206"/>
+        <v>03/12/2023</v>
+      </c>
+    </row>
+    <row r="2515" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2515" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2515">
+        <v>20231129</v>
+      </c>
+      <c r="C2515">
+        <v>0</v>
+      </c>
+      <c r="D2515">
+        <v>1</v>
+      </c>
+      <c r="E2515">
+        <v>1</v>
+      </c>
+      <c r="F2515">
+        <v>1</v>
+      </c>
+      <c r="G2515" t="str">
+        <f t="shared" si="203"/>
+        <v>29</v>
+      </c>
+      <c r="H2515" t="str">
+        <f t="shared" si="204"/>
+        <v>11</v>
+      </c>
+      <c r="I2515" t="str">
+        <f t="shared" si="205"/>
+        <v>2023</v>
+      </c>
+      <c r="J2515" t="str">
+        <f t="shared" si="206"/>
+        <v>29/11/2023</v>
+      </c>
+    </row>
+    <row r="2516" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2516" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2516">
+        <v>20231201</v>
+      </c>
+      <c r="C2516">
+        <v>0</v>
+      </c>
+      <c r="D2516">
+        <v>2</v>
+      </c>
+      <c r="E2516">
+        <v>2</v>
+      </c>
+      <c r="F2516">
+        <v>2</v>
+      </c>
+      <c r="G2516" t="str">
+        <f t="shared" si="203"/>
+        <v>01</v>
+      </c>
+      <c r="H2516" t="str">
+        <f t="shared" si="204"/>
+        <v>12</v>
+      </c>
+      <c r="I2516" t="str">
+        <f t="shared" si="205"/>
+        <v>2023</v>
+      </c>
+      <c r="J2516" t="str">
+        <f t="shared" si="206"/>
+        <v>01/12/2023</v>
+      </c>
+    </row>
+    <row r="2517" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2517" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2517">
+        <v>20231127</v>
+      </c>
+      <c r="C2517">
+        <v>0</v>
+      </c>
+      <c r="D2517">
+        <v>2</v>
+      </c>
+      <c r="E2517">
+        <v>3</v>
+      </c>
+      <c r="F2517">
+        <v>3</v>
+      </c>
+      <c r="G2517" t="str">
+        <f t="shared" si="203"/>
+        <v>27</v>
+      </c>
+      <c r="H2517" t="str">
+        <f t="shared" si="204"/>
+        <v>11</v>
+      </c>
+      <c r="I2517" t="str">
+        <f t="shared" si="205"/>
+        <v>2023</v>
+      </c>
+      <c r="J2517" t="str">
+        <f t="shared" si="206"/>
+        <v>27/11/2023</v>
+      </c>
+    </row>
+    <row r="2518" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2518" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2518">
+        <v>20231202</v>
+      </c>
+      <c r="C2518">
+        <v>0</v>
+      </c>
+      <c r="D2518">
+        <v>3</v>
+      </c>
+      <c r="E2518">
+        <v>4</v>
+      </c>
+      <c r="F2518">
+        <v>3</v>
+      </c>
+      <c r="G2518" t="str">
+        <f t="shared" si="203"/>
+        <v>02</v>
+      </c>
+      <c r="H2518" t="str">
+        <f t="shared" si="204"/>
+        <v>12</v>
+      </c>
+      <c r="I2518" t="str">
+        <f t="shared" si="205"/>
+        <v>2023</v>
+      </c>
+      <c r="J2518" t="str">
+        <f t="shared" si="206"/>
+        <v>02/12/2023</v>
+      </c>
+    </row>
+    <row r="2519" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2519" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2519">
+        <v>20231203</v>
+      </c>
+      <c r="C2519">
+        <v>0</v>
+      </c>
+      <c r="D2519">
+        <v>1</v>
+      </c>
+      <c r="E2519">
+        <v>1</v>
+      </c>
+      <c r="F2519">
+        <v>1</v>
+      </c>
+      <c r="G2519" t="str">
+        <f t="shared" si="203"/>
+        <v>03</v>
+      </c>
+      <c r="H2519" t="str">
+        <f t="shared" si="204"/>
+        <v>12</v>
+      </c>
+      <c r="I2519" t="str">
+        <f t="shared" si="205"/>
+        <v>2023</v>
+      </c>
+      <c r="J2519" t="str">
+        <f t="shared" si="206"/>
+        <v>03/12/2023</v>
+      </c>
+    </row>
+    <row r="2520" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2520" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2520">
+        <v>20231127</v>
+      </c>
+      <c r="C2520">
+        <v>0</v>
+      </c>
+      <c r="D2520">
+        <v>2</v>
+      </c>
+      <c r="E2520">
+        <v>2</v>
+      </c>
+      <c r="F2520">
+        <v>2</v>
+      </c>
+      <c r="G2520" t="str">
+        <f t="shared" si="203"/>
+        <v>27</v>
+      </c>
+      <c r="H2520" t="str">
+        <f t="shared" si="204"/>
+        <v>11</v>
+      </c>
+      <c r="I2520" t="str">
+        <f t="shared" si="205"/>
+        <v>2023</v>
+      </c>
+      <c r="J2520" t="str">
+        <f t="shared" si="206"/>
+        <v>27/11/2023</v>
+      </c>
+    </row>
+    <row r="2521" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2521" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2521">
+        <v>20231128</v>
+      </c>
+      <c r="C2521">
+        <v>0</v>
+      </c>
+      <c r="D2521">
+        <v>1</v>
+      </c>
+      <c r="E2521">
+        <v>1</v>
+      </c>
+      <c r="F2521">
+        <v>1</v>
+      </c>
+      <c r="G2521" t="str">
+        <f t="shared" si="203"/>
+        <v>28</v>
+      </c>
+      <c r="H2521" t="str">
+        <f t="shared" si="204"/>
+        <v>11</v>
+      </c>
+      <c r="I2521" t="str">
+        <f t="shared" si="205"/>
+        <v>2023</v>
+      </c>
+      <c r="J2521" t="str">
+        <f t="shared" si="206"/>
+        <v>28/11/2023</v>
+      </c>
+    </row>
+    <row r="2522" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2522" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2522">
+        <v>20231129</v>
+      </c>
+      <c r="C2522">
+        <v>0</v>
+      </c>
+      <c r="D2522">
+        <v>1</v>
+      </c>
+      <c r="E2522">
+        <v>1</v>
+      </c>
+      <c r="F2522">
+        <v>1</v>
+      </c>
+      <c r="G2522" t="str">
+        <f t="shared" si="203"/>
+        <v>29</v>
+      </c>
+      <c r="H2522" t="str">
+        <f t="shared" si="204"/>
+        <v>11</v>
+      </c>
+      <c r="I2522" t="str">
+        <f t="shared" si="205"/>
+        <v>2023</v>
+      </c>
+      <c r="J2522" t="str">
+        <f t="shared" si="206"/>
+        <v>29/11/2023</v>
+      </c>
+    </row>
+    <row r="2523" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2523" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2523">
+        <v>20231202</v>
+      </c>
+      <c r="C2523">
+        <v>0</v>
+      </c>
+      <c r="D2523">
+        <v>1</v>
+      </c>
+      <c r="E2523">
+        <v>2</v>
+      </c>
+      <c r="F2523">
+        <v>1</v>
+      </c>
+      <c r="G2523" t="str">
+        <f t="shared" si="203"/>
+        <v>02</v>
+      </c>
+      <c r="H2523" t="str">
+        <f t="shared" si="204"/>
+        <v>12</v>
+      </c>
+      <c r="I2523" t="str">
+        <f t="shared" si="205"/>
+        <v>2023</v>
+      </c>
+      <c r="J2523" t="str">
+        <f t="shared" si="206"/>
+        <v>02/12/2023</v>
+      </c>
+    </row>
+    <row r="2524" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2524" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2524">
+        <v>20231129</v>
+      </c>
+      <c r="C2524">
+        <v>0</v>
+      </c>
+      <c r="D2524">
+        <v>0</v>
+      </c>
+      <c r="E2524">
+        <v>1</v>
+      </c>
+      <c r="F2524">
+        <v>0</v>
+      </c>
+      <c r="G2524" t="str">
+        <f t="shared" ref="G2524:G2540" si="207">RIGHT(B2524,2)</f>
+        <v>29</v>
+      </c>
+      <c r="H2524" t="str">
+        <f t="shared" ref="H2524:H2540" si="208">MID(B2524,5,2)</f>
+        <v>11</v>
+      </c>
+      <c r="I2524" t="str">
+        <f t="shared" ref="I2524:I2540" si="209">LEFT(B2524,4)</f>
+        <v>2023</v>
+      </c>
+      <c r="J2524" t="str">
+        <f t="shared" ref="J2524:J2540" si="210">_xlfn.CONCAT(G2524,"/",H2524,"/",I2524)</f>
+        <v>29/11/2023</v>
+      </c>
+    </row>
+    <row r="2525" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2525" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2525">
+        <v>20231203</v>
+      </c>
+      <c r="C2525">
+        <v>0</v>
+      </c>
+      <c r="D2525">
+        <v>1</v>
+      </c>
+      <c r="E2525">
+        <v>1</v>
+      </c>
+      <c r="F2525">
+        <v>1</v>
+      </c>
+      <c r="G2525" t="str">
+        <f t="shared" si="207"/>
+        <v>03</v>
+      </c>
+      <c r="H2525" t="str">
+        <f t="shared" si="208"/>
+        <v>12</v>
+      </c>
+      <c r="I2525" t="str">
+        <f t="shared" si="209"/>
+        <v>2023</v>
+      </c>
+      <c r="J2525" t="str">
+        <f t="shared" si="210"/>
+        <v>03/12/2023</v>
+      </c>
+    </row>
+    <row r="2526" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2526" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2526">
+        <v>20231127</v>
+      </c>
+      <c r="C2526">
+        <v>0</v>
+      </c>
+      <c r="D2526">
+        <v>2</v>
+      </c>
+      <c r="E2526">
+        <v>2</v>
+      </c>
+      <c r="F2526">
+        <v>2</v>
+      </c>
+      <c r="G2526" t="str">
+        <f t="shared" si="207"/>
+        <v>27</v>
+      </c>
+      <c r="H2526" t="str">
+        <f t="shared" si="208"/>
+        <v>11</v>
+      </c>
+      <c r="I2526" t="str">
+        <f t="shared" si="209"/>
+        <v>2023</v>
+      </c>
+      <c r="J2526" t="str">
+        <f t="shared" si="210"/>
+        <v>27/11/2023</v>
+      </c>
+    </row>
+    <row r="2527" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2527" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2527">
+        <v>20231129</v>
+      </c>
+      <c r="C2527">
+        <v>0</v>
+      </c>
+      <c r="D2527">
+        <v>1</v>
+      </c>
+      <c r="E2527">
+        <v>1</v>
+      </c>
+      <c r="F2527">
+        <v>1</v>
+      </c>
+      <c r="G2527" t="str">
+        <f t="shared" si="207"/>
+        <v>29</v>
+      </c>
+      <c r="H2527" t="str">
+        <f t="shared" si="208"/>
+        <v>11</v>
+      </c>
+      <c r="I2527" t="str">
+        <f t="shared" si="209"/>
+        <v>2023</v>
+      </c>
+      <c r="J2527" t="str">
+        <f t="shared" si="210"/>
+        <v>29/11/2023</v>
+      </c>
+    </row>
+    <row r="2528" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2528" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2528">
+        <v>20231130</v>
+      </c>
+      <c r="C2528">
+        <v>0</v>
+      </c>
+      <c r="D2528">
+        <v>1</v>
+      </c>
+      <c r="E2528">
+        <v>1</v>
+      </c>
+      <c r="F2528">
+        <v>1</v>
+      </c>
+      <c r="G2528" t="str">
+        <f t="shared" si="207"/>
+        <v>30</v>
+      </c>
+      <c r="H2528" t="str">
+        <f t="shared" si="208"/>
+        <v>11</v>
+      </c>
+      <c r="I2528" t="str">
+        <f t="shared" si="209"/>
+        <v>2023</v>
+      </c>
+      <c r="J2528" t="str">
+        <f t="shared" si="210"/>
+        <v>30/11/2023</v>
+      </c>
+    </row>
+    <row r="2529" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2529" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2529">
+        <v>20231201</v>
+      </c>
+      <c r="C2529">
+        <v>0</v>
+      </c>
+      <c r="D2529">
+        <v>1</v>
+      </c>
+      <c r="E2529">
+        <v>1</v>
+      </c>
+      <c r="F2529">
+        <v>1</v>
+      </c>
+      <c r="G2529" t="str">
+        <f t="shared" si="207"/>
+        <v>01</v>
+      </c>
+      <c r="H2529" t="str">
+        <f t="shared" si="208"/>
+        <v>12</v>
+      </c>
+      <c r="I2529" t="str">
+        <f t="shared" si="209"/>
+        <v>2023</v>
+      </c>
+      <c r="J2529" t="str">
+        <f t="shared" si="210"/>
+        <v>01/12/2023</v>
+      </c>
+    </row>
+    <row r="2530" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2530" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2530">
+        <v>20231130</v>
+      </c>
+      <c r="C2530">
+        <v>0</v>
+      </c>
+      <c r="D2530">
+        <v>4</v>
+      </c>
+      <c r="E2530">
+        <v>4</v>
+      </c>
+      <c r="F2530">
+        <v>4</v>
+      </c>
+      <c r="G2530" t="str">
+        <f t="shared" si="207"/>
+        <v>30</v>
+      </c>
+      <c r="H2530" t="str">
+        <f t="shared" si="208"/>
+        <v>11</v>
+      </c>
+      <c r="I2530" t="str">
+        <f t="shared" si="209"/>
+        <v>2023</v>
+      </c>
+      <c r="J2530" t="str">
+        <f t="shared" si="210"/>
+        <v>30/11/2023</v>
+      </c>
+    </row>
+    <row r="2531" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2531" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2531">
+        <v>20231201</v>
+      </c>
+      <c r="C2531">
+        <v>0</v>
+      </c>
+      <c r="D2531">
+        <v>1</v>
+      </c>
+      <c r="E2531">
+        <v>1</v>
+      </c>
+      <c r="F2531">
+        <v>1</v>
+      </c>
+      <c r="G2531" t="str">
+        <f t="shared" si="207"/>
+        <v>01</v>
+      </c>
+      <c r="H2531" t="str">
+        <f t="shared" si="208"/>
+        <v>12</v>
+      </c>
+      <c r="I2531" t="str">
+        <f t="shared" si="209"/>
+        <v>2023</v>
+      </c>
+      <c r="J2531" t="str">
+        <f t="shared" si="210"/>
+        <v>01/12/2023</v>
+      </c>
+    </row>
+    <row r="2532" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2532" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2532">
+        <v>20231129</v>
+      </c>
+      <c r="C2532">
+        <v>0</v>
+      </c>
+      <c r="D2532">
+        <v>1</v>
+      </c>
+      <c r="E2532">
+        <v>1</v>
+      </c>
+      <c r="F2532">
+        <v>1</v>
+      </c>
+      <c r="G2532" t="str">
+        <f t="shared" si="207"/>
+        <v>29</v>
+      </c>
+      <c r="H2532" t="str">
+        <f t="shared" si="208"/>
+        <v>11</v>
+      </c>
+      <c r="I2532" t="str">
+        <f t="shared" si="209"/>
+        <v>2023</v>
+      </c>
+      <c r="J2532" t="str">
+        <f t="shared" si="210"/>
+        <v>29/11/2023</v>
+      </c>
+    </row>
+    <row r="2533" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2533" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2533">
+        <v>20231130</v>
+      </c>
+      <c r="C2533">
+        <v>0</v>
+      </c>
+      <c r="D2533">
+        <v>5</v>
+      </c>
+      <c r="E2533">
+        <v>6</v>
+      </c>
+      <c r="F2533">
+        <v>6</v>
+      </c>
+      <c r="G2533" t="str">
+        <f t="shared" si="207"/>
+        <v>30</v>
+      </c>
+      <c r="H2533" t="str">
+        <f t="shared" si="208"/>
+        <v>11</v>
+      </c>
+      <c r="I2533" t="str">
+        <f t="shared" si="209"/>
+        <v>2023</v>
+      </c>
+      <c r="J2533" t="str">
+        <f t="shared" si="210"/>
+        <v>30/11/2023</v>
+      </c>
+    </row>
+    <row r="2534" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2534" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2534">
+        <v>20231201</v>
+      </c>
+      <c r="C2534">
+        <v>0</v>
+      </c>
+      <c r="D2534">
+        <v>1</v>
+      </c>
+      <c r="E2534">
+        <v>2</v>
+      </c>
+      <c r="F2534">
+        <v>2</v>
+      </c>
+      <c r="G2534" t="str">
+        <f t="shared" si="207"/>
+        <v>01</v>
+      </c>
+      <c r="H2534" t="str">
+        <f t="shared" si="208"/>
+        <v>12</v>
+      </c>
+      <c r="I2534" t="str">
+        <f t="shared" si="209"/>
+        <v>2023</v>
+      </c>
+      <c r="J2534" t="str">
+        <f t="shared" si="210"/>
+        <v>01/12/2023</v>
+      </c>
+    </row>
+    <row r="2535" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2535" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2535">
+        <v>20231129</v>
+      </c>
+      <c r="C2535">
+        <v>0</v>
+      </c>
+      <c r="D2535">
+        <v>1</v>
+      </c>
+      <c r="E2535">
+        <v>1</v>
+      </c>
+      <c r="F2535">
+        <v>1</v>
+      </c>
+      <c r="G2535" t="str">
+        <f t="shared" si="207"/>
+        <v>29</v>
+      </c>
+      <c r="H2535" t="str">
+        <f t="shared" si="208"/>
+        <v>11</v>
+      </c>
+      <c r="I2535" t="str">
+        <f t="shared" si="209"/>
+        <v>2023</v>
+      </c>
+      <c r="J2535" t="str">
+        <f t="shared" si="210"/>
+        <v>29/11/2023</v>
+      </c>
+    </row>
+    <row r="2536" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2536" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2536">
+        <v>20231202</v>
+      </c>
+      <c r="C2536">
+        <v>0</v>
+      </c>
+      <c r="D2536">
+        <v>2</v>
+      </c>
+      <c r="E2536">
+        <v>2</v>
+      </c>
+      <c r="F2536">
+        <v>2</v>
+      </c>
+      <c r="G2536" t="str">
+        <f t="shared" si="207"/>
+        <v>02</v>
+      </c>
+      <c r="H2536" t="str">
+        <f t="shared" si="208"/>
+        <v>12</v>
+      </c>
+      <c r="I2536" t="str">
+        <f t="shared" si="209"/>
+        <v>2023</v>
+      </c>
+      <c r="J2536" t="str">
+        <f t="shared" si="210"/>
+        <v>02/12/2023</v>
+      </c>
+    </row>
+    <row r="2537" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2537" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2537">
+        <v>20231203</v>
+      </c>
+      <c r="C2537">
+        <v>0</v>
+      </c>
+      <c r="D2537">
+        <v>0</v>
+      </c>
+      <c r="E2537">
+        <v>1</v>
+      </c>
+      <c r="F2537">
+        <v>1</v>
+      </c>
+      <c r="G2537" t="str">
+        <f t="shared" si="207"/>
+        <v>03</v>
+      </c>
+      <c r="H2537" t="str">
+        <f t="shared" si="208"/>
+        <v>12</v>
+      </c>
+      <c r="I2537" t="str">
+        <f t="shared" si="209"/>
+        <v>2023</v>
+      </c>
+      <c r="J2537" t="str">
+        <f t="shared" si="210"/>
+        <v>03/12/2023</v>
+      </c>
+    </row>
+    <row r="2538" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2538" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2538">
+        <v>20231127</v>
+      </c>
+      <c r="C2538">
+        <v>0</v>
+      </c>
+      <c r="D2538">
+        <v>1</v>
+      </c>
+      <c r="E2538">
+        <v>1</v>
+      </c>
+      <c r="F2538">
+        <v>1</v>
+      </c>
+      <c r="G2538" t="str">
+        <f t="shared" si="207"/>
+        <v>27</v>
+      </c>
+      <c r="H2538" t="str">
+        <f t="shared" si="208"/>
+        <v>11</v>
+      </c>
+      <c r="I2538" t="str">
+        <f t="shared" si="209"/>
+        <v>2023</v>
+      </c>
+      <c r="J2538" t="str">
+        <f t="shared" si="210"/>
+        <v>27/11/2023</v>
+      </c>
+    </row>
+    <row r="2539" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2539" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2539">
+        <v>20231203</v>
+      </c>
+      <c r="C2539">
+        <v>0</v>
+      </c>
+      <c r="D2539">
+        <v>1</v>
+      </c>
+      <c r="E2539">
+        <v>1</v>
+      </c>
+      <c r="F2539">
+        <v>1</v>
+      </c>
+      <c r="G2539" t="str">
+        <f t="shared" si="207"/>
+        <v>03</v>
+      </c>
+      <c r="H2539" t="str">
+        <f t="shared" si="208"/>
+        <v>12</v>
+      </c>
+      <c r="I2539" t="str">
+        <f t="shared" si="209"/>
+        <v>2023</v>
+      </c>
+      <c r="J2539" t="str">
+        <f t="shared" si="210"/>
+        <v>03/12/2023</v>
+      </c>
+    </row>
+    <row r="2540" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2540" t="s">
+        <v>174</v>
+      </c>
+      <c r="B2540">
+        <v>20231129</v>
+      </c>
+      <c r="C2540">
+        <v>0</v>
+      </c>
+      <c r="D2540">
+        <v>1</v>
+      </c>
+      <c r="E2540">
+        <v>1</v>
+      </c>
+      <c r="F2540">
+        <v>1</v>
+      </c>
+      <c r="G2540" t="str">
+        <f t="shared" si="207"/>
+        <v>29</v>
+      </c>
+      <c r="H2540" t="str">
+        <f t="shared" si="208"/>
+        <v>11</v>
+      </c>
+      <c r="I2540" t="str">
+        <f t="shared" si="209"/>
+        <v>2023</v>
+      </c>
+      <c r="J2540" t="str">
+        <f t="shared" si="210"/>
+        <v>29/11/2023</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
